--- a/Code/Results/Cases/Case_0_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_61/res_bus/vm_pu.xlsx
@@ -417,159 +417,840 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.7185632477519966</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.7323839355369317</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.7578049167338365</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.6689556140121736</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.7543527846900736</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.749473842458068</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.7741249429451604</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.6883320558111681</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.7554240521698072</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.7965989817772821</v>
+      </c>
+      <c r="D3">
+        <v>0.8072097875174603</v>
+      </c>
+      <c r="E3">
+        <v>0.8252966998888509</v>
+      </c>
+      <c r="F3">
+        <v>0.7619769117344979</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0.824737324707881</v>
+      </c>
+      <c r="K3">
+        <v>0.8210940392777237</v>
+      </c>
+      <c r="L3">
+        <v>0.838790504502215</v>
+      </c>
+      <c r="M3">
+        <v>0.7769477492173753</v>
+      </c>
+      <c r="N3">
+        <v>0.8259085463076594</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="C4">
+        <v>0.8271699043368961</v>
+      </c>
+      <c r="D4">
+        <v>0.8366195549777939</v>
+      </c>
+      <c r="E4">
+        <v>0.8519412999328172</v>
+      </c>
+      <c r="F4">
+        <v>0.7977076658587315</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0.8523342661375622</v>
+      </c>
+      <c r="K4">
+        <v>0.8491926837654523</v>
+      </c>
+      <c r="L4">
+        <v>0.8642299139117372</v>
+      </c>
+      <c r="M4">
+        <v>0.81106857864278</v>
+      </c>
+      <c r="N4">
+        <v>0.8535446785595845</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="C5">
+        <v>0.8381906269217045</v>
+      </c>
+      <c r="D5">
+        <v>0.8472329628728399</v>
+      </c>
+      <c r="E5">
+        <v>0.8615677873249145</v>
+      </c>
+      <c r="F5">
+        <v>0.8105245520107698</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0.8622822803600221</v>
+      </c>
+      <c r="K5">
+        <v>0.8593244118748438</v>
+      </c>
+      <c r="L5">
+        <v>0.8734079623640641</v>
+      </c>
+      <c r="M5">
+        <v>0.823312813624989</v>
+      </c>
+      <c r="N5">
+        <v>0.8635068201032932</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="C6">
+        <v>0.8399604820022167</v>
+      </c>
+      <c r="D6">
+        <v>0.8489379286351445</v>
+      </c>
+      <c r="E6">
+        <v>0.8631146635420557</v>
+      </c>
+      <c r="F6">
+        <v>0.8125801662397429</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0.8638797553969546</v>
+      </c>
+      <c r="K6">
+        <v>0.8609515420102365</v>
+      </c>
+      <c r="L6">
+        <v>0.8748821111609016</v>
+      </c>
+      <c r="M6">
+        <v>0.8252767235616278</v>
+      </c>
+      <c r="N6">
+        <v>0.865106563738011</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="C7">
+        <v>0.827323018646858</v>
+      </c>
+      <c r="D7">
+        <v>0.8367669711923571</v>
+      </c>
+      <c r="E7">
+        <v>0.8520749730582343</v>
+      </c>
+      <c r="F7">
+        <v>0.7978859421826155</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0.8524724832786242</v>
+      </c>
+      <c r="K7">
+        <v>0.8493334423943455</v>
+      </c>
+      <c r="L7">
+        <v>0.8643574084796345</v>
+      </c>
+      <c r="M7">
+        <v>0.8112388773370826</v>
+      </c>
+      <c r="N7">
+        <v>0.8536830919848404</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="C8">
+        <v>0.7534782072524071</v>
+      </c>
+      <c r="D8">
+        <v>0.7658148228477143</v>
+      </c>
+      <c r="E8">
+        <v>0.7878948441993047</v>
+      </c>
+      <c r="F8">
+        <v>0.7109821744849447</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0.7858270219382595</v>
+      </c>
+      <c r="K8">
+        <v>0.7814935142181372</v>
+      </c>
+      <c r="L8">
+        <v>0.8029949382389995</v>
+      </c>
+      <c r="M8">
+        <v>0.7283151511768088</v>
+      </c>
+      <c r="N8">
+        <v>0.7869429864450309</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="C9">
+        <v>0.7534782072524071</v>
+      </c>
+      <c r="D9">
+        <v>0.7658148228477143</v>
+      </c>
+      <c r="E9">
+        <v>0.7878948441993047</v>
+      </c>
+      <c r="F9">
+        <v>0.7109821744849447</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0.7858270219382595</v>
+      </c>
+      <c r="K9">
+        <v>0.7814935142181372</v>
+      </c>
+      <c r="L9">
+        <v>0.8029949382389995</v>
+      </c>
+      <c r="M9">
+        <v>0.7283151511768088</v>
+      </c>
+      <c r="N9">
+        <v>0.7869429864450309</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="C10">
+        <v>0.7534782072524071</v>
+      </c>
+      <c r="D10">
+        <v>0.7658148228477143</v>
+      </c>
+      <c r="E10">
+        <v>0.7878948441993047</v>
+      </c>
+      <c r="F10">
+        <v>0.7109821744849447</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0.7858270219382595</v>
+      </c>
+      <c r="K10">
+        <v>0.7814935142181372</v>
+      </c>
+      <c r="L10">
+        <v>0.8029949382389995</v>
+      </c>
+      <c r="M10">
+        <v>0.7283151511768088</v>
+      </c>
+      <c r="N10">
+        <v>0.7869429864450309</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="C11">
+        <v>0.7534782072524071</v>
+      </c>
+      <c r="D11">
+        <v>0.7658148228477143</v>
+      </c>
+      <c r="E11">
+        <v>0.7878948441993047</v>
+      </c>
+      <c r="F11">
+        <v>0.7109821744849447</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0.7858270219382595</v>
+      </c>
+      <c r="K11">
+        <v>0.7814935142181372</v>
+      </c>
+      <c r="L11">
+        <v>0.8029949382389995</v>
+      </c>
+      <c r="M11">
+        <v>0.7283151511768088</v>
+      </c>
+      <c r="N11">
+        <v>0.7869429864450309</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="C12">
+        <v>0.7534782072524071</v>
+      </c>
+      <c r="D12">
+        <v>0.7658148228477143</v>
+      </c>
+      <c r="E12">
+        <v>0.7878948441993047</v>
+      </c>
+      <c r="F12">
+        <v>0.7109821744849447</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0.7858270219382595</v>
+      </c>
+      <c r="K12">
+        <v>0.7814935142181372</v>
+      </c>
+      <c r="L12">
+        <v>0.8029949382389995</v>
+      </c>
+      <c r="M12">
+        <v>0.7283151511768088</v>
+      </c>
+      <c r="N12">
+        <v>0.7869429864450309</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="C13">
+        <v>0.7534782072524071</v>
+      </c>
+      <c r="D13">
+        <v>0.7658148228477143</v>
+      </c>
+      <c r="E13">
+        <v>0.7878948441993047</v>
+      </c>
+      <c r="F13">
+        <v>0.7109821744849447</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0.7858270219382595</v>
+      </c>
+      <c r="K13">
+        <v>0.7814935142181372</v>
+      </c>
+      <c r="L13">
+        <v>0.8029949382389995</v>
+      </c>
+      <c r="M13">
+        <v>0.7283151511768088</v>
+      </c>
+      <c r="N13">
+        <v>0.7869429864450309</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="C14">
+        <v>0.7534782072524071</v>
+      </c>
+      <c r="D14">
+        <v>0.7658148228477143</v>
+      </c>
+      <c r="E14">
+        <v>0.7878948441993047</v>
+      </c>
+      <c r="F14">
+        <v>0.7109821744849447</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0.7858270219382595</v>
+      </c>
+      <c r="K14">
+        <v>0.7814935142181372</v>
+      </c>
+      <c r="L14">
+        <v>0.8029949382389995</v>
+      </c>
+      <c r="M14">
+        <v>0.7283151511768088</v>
+      </c>
+      <c r="N14">
+        <v>0.7869429864450309</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="C15">
+        <v>0.7534782072524071</v>
+      </c>
+      <c r="D15">
+        <v>0.7658148228477143</v>
+      </c>
+      <c r="E15">
+        <v>0.7878948441993047</v>
+      </c>
+      <c r="F15">
+        <v>0.7109821744849447</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0.7858270219382595</v>
+      </c>
+      <c r="K15">
+        <v>0.7814935142181372</v>
+      </c>
+      <c r="L15">
+        <v>0.8029949382389995</v>
+      </c>
+      <c r="M15">
+        <v>0.7283151511768088</v>
+      </c>
+      <c r="N15">
+        <v>0.7869429864450309</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="C16">
+        <v>0.7534782072524071</v>
+      </c>
+      <c r="D16">
+        <v>0.7658148228477143</v>
+      </c>
+      <c r="E16">
+        <v>0.7878948441993047</v>
+      </c>
+      <c r="F16">
+        <v>0.7109821744849447</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0.7858270219382595</v>
+      </c>
+      <c r="K16">
+        <v>0.7814935142181372</v>
+      </c>
+      <c r="L16">
+        <v>0.8029949382389995</v>
+      </c>
+      <c r="M16">
+        <v>0.7283151511768088</v>
+      </c>
+      <c r="N16">
+        <v>0.7869429864450309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="C17">
+        <v>0.7534782072524071</v>
+      </c>
+      <c r="D17">
+        <v>0.7658148228477143</v>
+      </c>
+      <c r="E17">
+        <v>0.7878948441993047</v>
+      </c>
+      <c r="F17">
+        <v>0.7109821744849447</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0.7858270219382595</v>
+      </c>
+      <c r="K17">
+        <v>0.7814935142181372</v>
+      </c>
+      <c r="L17">
+        <v>0.8029949382389995</v>
+      </c>
+      <c r="M17">
+        <v>0.7283151511768088</v>
+      </c>
+      <c r="N17">
+        <v>0.7869429864450309</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="C18">
+        <v>0.7534782072524071</v>
+      </c>
+      <c r="D18">
+        <v>0.7658148228477143</v>
+      </c>
+      <c r="E18">
+        <v>0.7878948441993047</v>
+      </c>
+      <c r="F18">
+        <v>0.7109821744849447</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0.7858270219382595</v>
+      </c>
+      <c r="K18">
+        <v>0.7814935142181372</v>
+      </c>
+      <c r="L18">
+        <v>0.8029949382389995</v>
+      </c>
+      <c r="M18">
+        <v>0.7283151511768088</v>
+      </c>
+      <c r="N18">
+        <v>0.7869429864450309</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="C19">
+        <v>0.7534782072524071</v>
+      </c>
+      <c r="D19">
+        <v>0.7658148228477143</v>
+      </c>
+      <c r="E19">
+        <v>0.7878948441993047</v>
+      </c>
+      <c r="F19">
+        <v>0.7109821744849447</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0.7858270219382595</v>
+      </c>
+      <c r="K19">
+        <v>0.7814935142181372</v>
+      </c>
+      <c r="L19">
+        <v>0.8029949382389995</v>
+      </c>
+      <c r="M19">
+        <v>0.7283151511768088</v>
+      </c>
+      <c r="N19">
+        <v>0.7869429864450309</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="C20">
+        <v>0.7534782072524071</v>
+      </c>
+      <c r="D20">
+        <v>0.7658148228477143</v>
+      </c>
+      <c r="E20">
+        <v>0.7878948441993047</v>
+      </c>
+      <c r="F20">
+        <v>0.7109821744849447</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0.7858270219382595</v>
+      </c>
+      <c r="K20">
+        <v>0.7814935142181372</v>
+      </c>
+      <c r="L20">
+        <v>0.8029949382389995</v>
+      </c>
+      <c r="M20">
+        <v>0.7283151511768088</v>
+      </c>
+      <c r="N20">
+        <v>0.7869429864450309</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="C21">
+        <v>0.7534782072524071</v>
+      </c>
+      <c r="D21">
+        <v>0.7658148228477143</v>
+      </c>
+      <c r="E21">
+        <v>0.7878948441993047</v>
+      </c>
+      <c r="F21">
+        <v>0.7109821744849447</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0.7858270219382595</v>
+      </c>
+      <c r="K21">
+        <v>0.7814935142181372</v>
+      </c>
+      <c r="L21">
+        <v>0.8029949382389995</v>
+      </c>
+      <c r="M21">
+        <v>0.7283151511768088</v>
+      </c>
+      <c r="N21">
+        <v>0.7869429864450309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="C22">
+        <v>0.7534782072524071</v>
+      </c>
+      <c r="D22">
+        <v>0.7658148228477143</v>
+      </c>
+      <c r="E22">
+        <v>0.7878948441993047</v>
+      </c>
+      <c r="F22">
+        <v>0.7109821744849447</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0.7858270219382595</v>
+      </c>
+      <c r="K22">
+        <v>0.7814935142181372</v>
+      </c>
+      <c r="L22">
+        <v>0.8029949382389995</v>
+      </c>
+      <c r="M22">
+        <v>0.7283151511768088</v>
+      </c>
+      <c r="N22">
+        <v>0.7869429864450309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="C23">
+        <v>0.7534782072524071</v>
+      </c>
+      <c r="D23">
+        <v>0.7658148228477143</v>
+      </c>
+      <c r="E23">
+        <v>0.7878948441993047</v>
+      </c>
+      <c r="F23">
+        <v>0.7109821744849447</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0.7858270219382595</v>
+      </c>
+      <c r="K23">
+        <v>0.7814935142181372</v>
+      </c>
+      <c r="L23">
+        <v>0.8029949382389995</v>
+      </c>
+      <c r="M23">
+        <v>0.7283151511768088</v>
+      </c>
+      <c r="N23">
+        <v>0.7869429864450309</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="C24">
+        <v>0.7534782072524071</v>
+      </c>
+      <c r="D24">
+        <v>0.7658148228477143</v>
+      </c>
+      <c r="E24">
+        <v>0.7878948441993047</v>
+      </c>
+      <c r="F24">
+        <v>0.7109821744849447</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0.7858270219382595</v>
+      </c>
+      <c r="K24">
+        <v>0.7814935142181372</v>
+      </c>
+      <c r="L24">
+        <v>0.8029949382389995</v>
+      </c>
+      <c r="M24">
+        <v>0.7283151511768088</v>
+      </c>
+      <c r="N24">
+        <v>0.7869429864450309</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.7534782072524071</v>
+      </c>
+      <c r="D25">
+        <v>0.7658148228477143</v>
+      </c>
+      <c r="E25">
+        <v>0.7878948441993047</v>
+      </c>
+      <c r="F25">
+        <v>0.7109821744849447</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0.7858270219382595</v>
+      </c>
+      <c r="K25">
+        <v>0.7814935142181372</v>
+      </c>
+      <c r="L25">
+        <v>0.8029949382389995</v>
+      </c>
+      <c r="M25">
+        <v>0.7283151511768088</v>
+      </c>
+      <c r="N25">
+        <v>0.7869429864450309</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_61/res_bus/vm_pu.xlsx
@@ -417,840 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
       <c r="C2">
-        <v>0.7185632477519966</v>
+        <v>0.959044579457996</v>
       </c>
       <c r="D2">
-        <v>0.7323839355369317</v>
+        <v>0.9702904462154284</v>
       </c>
       <c r="E2">
-        <v>0.7578049167338365</v>
+        <v>0.9702339714809153</v>
       </c>
       <c r="F2">
-        <v>0.6689556140121736</v>
+        <v>0.956378838912365</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="I2">
+        <v>1.032221458540408</v>
+      </c>
       <c r="J2">
-        <v>0.7543527846900736</v>
+        <v>0.982523288891918</v>
       </c>
       <c r="K2">
-        <v>0.749473842458068</v>
+        <v>0.9821798089267304</v>
       </c>
       <c r="L2">
-        <v>0.7741249429451604</v>
+        <v>0.9821241835498727</v>
       </c>
       <c r="M2">
-        <v>0.6883320558111681</v>
+        <v>0.968481301140435</v>
       </c>
       <c r="N2">
-        <v>0.7554240521698072</v>
+        <v>0.9839185846591407</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
       <c r="C3">
-        <v>0.7965989817772821</v>
+        <v>0.9684701011435072</v>
       </c>
       <c r="D3">
-        <v>0.8072097875174603</v>
+        <v>0.9784197211754732</v>
       </c>
       <c r="E3">
-        <v>0.8252966998888509</v>
+        <v>0.9797626764609577</v>
       </c>
       <c r="F3">
-        <v>0.7619769117344979</v>
+        <v>0.9698659216612602</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>1.036118053947107</v>
+      </c>
       <c r="J3">
-        <v>0.824737324707881</v>
+        <v>0.9898588333895684</v>
       </c>
       <c r="K3">
-        <v>0.8210940392777237</v>
+        <v>0.9893363810857708</v>
       </c>
       <c r="L3">
-        <v>0.838790504502215</v>
+        <v>0.9906612181572739</v>
       </c>
       <c r="M3">
-        <v>0.7769477492173753</v>
+        <v>0.9808994678369377</v>
       </c>
       <c r="N3">
-        <v>0.8259085463076594</v>
+        <v>0.9912645464713766</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
       <c r="C4">
-        <v>0.8271699043368961</v>
+        <v>0.9741906271266488</v>
       </c>
       <c r="D4">
-        <v>0.8366195549777939</v>
+        <v>0.9833529823305296</v>
       </c>
       <c r="E4">
-        <v>0.8519412999328172</v>
+        <v>0.9855028744599008</v>
       </c>
       <c r="F4">
-        <v>0.7977076658587315</v>
+        <v>0.9778986682183278</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>1.038373992452268</v>
+      </c>
       <c r="J4">
-        <v>0.8523342661375622</v>
+        <v>0.9942784020773735</v>
       </c>
       <c r="K4">
-        <v>0.8491926837654523</v>
+        <v>0.9936565631138518</v>
       </c>
       <c r="L4">
-        <v>0.8642299139117372</v>
+        <v>0.9957794744431234</v>
       </c>
       <c r="M4">
-        <v>0.81106857864278</v>
+        <v>0.9882713646695837</v>
       </c>
       <c r="N4">
-        <v>0.8535446785595845</v>
+        <v>0.9956903914536501</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
       <c r="C5">
-        <v>0.8381906269217045</v>
+        <v>0.9765162222297258</v>
       </c>
       <c r="D5">
-        <v>0.8472329628728399</v>
+        <v>0.9853585102175421</v>
       </c>
       <c r="E5">
-        <v>0.8615677873249145</v>
+        <v>0.9878272210030123</v>
       </c>
       <c r="F5">
-        <v>0.8105245520107698</v>
+        <v>0.981131206081455</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>1.039266417477308</v>
+      </c>
       <c r="J5">
-        <v>0.8622822803600221</v>
+        <v>0.9960679928289221</v>
       </c>
       <c r="K5">
-        <v>0.8593244118748438</v>
+        <v>0.9954077894309133</v>
       </c>
       <c r="L5">
-        <v>0.8734079623640641</v>
+        <v>0.9978464639552308</v>
       </c>
       <c r="M5">
-        <v>0.823312813624989</v>
+        <v>0.9912323547815001</v>
       </c>
       <c r="N5">
-        <v>0.8635068201032932</v>
+        <v>0.997482523629335</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
       <c r="C6">
-        <v>0.8399604820022167</v>
+        <v>0.9769023279198468</v>
       </c>
       <c r="D6">
-        <v>0.8489379286351445</v>
+        <v>0.9856914785461781</v>
       </c>
       <c r="E6">
-        <v>0.8631146635420557</v>
+        <v>0.9882126008350012</v>
       </c>
       <c r="F6">
-        <v>0.8125801662397429</v>
+        <v>0.9816660286092009</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="I6">
+        <v>1.039413162506051</v>
+      </c>
       <c r="J6">
-        <v>0.8638797553969546</v>
+        <v>0.9963647060415294</v>
       </c>
       <c r="K6">
-        <v>0.8609515420102365</v>
+        <v>0.9956982489732693</v>
       </c>
       <c r="L6">
-        <v>0.8748821111609016</v>
+        <v>0.9981888577008986</v>
       </c>
       <c r="M6">
-        <v>0.8252767235616278</v>
+        <v>0.9917219237841317</v>
       </c>
       <c r="N6">
-        <v>0.865106563738011</v>
+        <v>0.9977796582087376</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
       <c r="C7">
-        <v>0.827323018646858</v>
+        <v>0.974222000553266</v>
       </c>
       <c r="D7">
-        <v>0.8367669711923571</v>
+        <v>0.9833800378345589</v>
       </c>
       <c r="E7">
-        <v>0.8520749730582343</v>
+        <v>0.9855342666505705</v>
       </c>
       <c r="F7">
-        <v>0.7978859421826155</v>
+        <v>0.9779424042408188</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>1.038386128410228</v>
+      </c>
       <c r="J7">
-        <v>0.8524724832786242</v>
+        <v>0.9943025721148132</v>
       </c>
       <c r="K7">
-        <v>0.8493334423943455</v>
+        <v>0.9936802076765348</v>
       </c>
       <c r="L7">
-        <v>0.8643574084796345</v>
+        <v>0.9958074123974788</v>
       </c>
       <c r="M7">
-        <v>0.8112388773370826</v>
+        <v>0.9883114488743494</v>
       </c>
       <c r="N7">
-        <v>0.8536830919848404</v>
+        <v>0.9957145958153155</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
       <c r="C8">
-        <v>0.7534782072524071</v>
+        <v>0.9623160762690468</v>
       </c>
       <c r="D8">
-        <v>0.7658148228477143</v>
+        <v>0.9731122366749502</v>
       </c>
       <c r="E8">
-        <v>0.7878948441993047</v>
+        <v>0.9735513269795451</v>
       </c>
       <c r="F8">
-        <v>0.7109821744849447</v>
+        <v>0.9610956707827789</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="I8">
+        <v>1.033598529379869</v>
+      </c>
       <c r="J8">
-        <v>0.7858270219382595</v>
+        <v>0.9850768932014664</v>
       </c>
       <c r="K8">
-        <v>0.7814935142181372</v>
+        <v>0.984669172775256</v>
       </c>
       <c r="L8">
-        <v>0.8029949382389995</v>
+        <v>0.9851018950961704</v>
       </c>
       <c r="M8">
-        <v>0.7283151511768088</v>
+        <v>0.9728297526025086</v>
       </c>
       <c r="N8">
-        <v>0.7869429864450309</v>
+        <v>0.9864758153797113</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
       <c r="C9">
-        <v>0.7534782072524071</v>
+        <v>0.9377085964357069</v>
       </c>
       <c r="D9">
-        <v>0.7658148228477143</v>
+        <v>0.9518755930751921</v>
       </c>
       <c r="E9">
-        <v>0.7878948441993047</v>
+        <v>0.948325612761882</v>
       </c>
       <c r="F9">
-        <v>0.7109821744849447</v>
+        <v>0.9246581699925405</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>1.022628132226558</v>
+      </c>
       <c r="J9">
-        <v>0.7858270219382595</v>
+        <v>0.9656704836224473</v>
       </c>
       <c r="K9">
-        <v>0.7814935142181372</v>
+        <v>0.965800894241707</v>
       </c>
       <c r="L9">
-        <v>0.8029949382389995</v>
+        <v>0.9623166686539818</v>
       </c>
       <c r="M9">
-        <v>0.7283151511768088</v>
+        <v>0.9391045733131034</v>
       </c>
       <c r="N9">
-        <v>0.7869429864450309</v>
+        <v>0.9670418464731438</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
       <c r="C10">
-        <v>0.7534782072524071</v>
+        <v>0.917116731204579</v>
       </c>
       <c r="D10">
-        <v>0.7658148228477143</v>
+        <v>0.9340637774585466</v>
       </c>
       <c r="E10">
-        <v>0.7878948441993047</v>
+        <v>0.9266796214898687</v>
       </c>
       <c r="F10">
-        <v>0.7109821744849447</v>
+        <v>0.8923149483788413</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>1.012374721545232</v>
+      </c>
       <c r="J10">
-        <v>0.7858270219382595</v>
+        <v>0.949053811795124</v>
       </c>
       <c r="K10">
-        <v>0.7814935142181372</v>
+        <v>0.9497351293817642</v>
       </c>
       <c r="L10">
-        <v>0.8029949382389995</v>
+        <v>0.9425121499766103</v>
       </c>
       <c r="M10">
-        <v>0.7283151511768088</v>
+        <v>0.908944828890099</v>
       </c>
       <c r="N10">
-        <v>0.7869429864450309</v>
+        <v>0.9504015770658669</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
       <c r="C11">
-        <v>0.7534782072524071</v>
+        <v>0.9062885542802926</v>
       </c>
       <c r="D11">
-        <v>0.7658148228477143</v>
+        <v>0.9246696969384173</v>
       </c>
       <c r="E11">
-        <v>0.7878948441993047</v>
+        <v>0.9150604873840592</v>
       </c>
       <c r="F11">
-        <v>0.7109821744849447</v>
+        <v>0.8745084309248932</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="I11">
+        <v>1.006566933531324</v>
+      </c>
       <c r="J11">
-        <v>0.7858270219382595</v>
+        <v>0.9401556440749969</v>
       </c>
       <c r="K11">
-        <v>0.7814935142181372</v>
+        <v>0.9411672545570026</v>
       </c>
       <c r="L11">
-        <v>0.8029949382389995</v>
+        <v>0.9317840966016145</v>
       </c>
       <c r="M11">
-        <v>0.7283151511768088</v>
+        <v>0.892260566898936</v>
       </c>
       <c r="N11">
-        <v>0.7869429864450309</v>
+        <v>0.9414907729269428</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
       <c r="C12">
-        <v>0.7534782072524071</v>
+        <v>0.9017827797445467</v>
       </c>
       <c r="D12">
-        <v>0.7658148228477143</v>
+        <v>0.920752675012414</v>
       </c>
       <c r="E12">
-        <v>0.7878948441993047</v>
+        <v>0.9101693939255211</v>
       </c>
       <c r="F12">
-        <v>0.7109821744849447</v>
+        <v>0.8669116737748193</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="I12">
+        <v>1.004057495724615</v>
+      </c>
       <c r="J12">
-        <v>0.7858270219382595</v>
+        <v>0.9364155461235252</v>
       </c>
       <c r="K12">
-        <v>0.7814935142181372</v>
+        <v>0.9375737491769085</v>
       </c>
       <c r="L12">
-        <v>0.8029949382389995</v>
+        <v>0.9272467804215365</v>
       </c>
       <c r="M12">
-        <v>0.7283151511768088</v>
+        <v>0.8851257838290522</v>
       </c>
       <c r="N12">
-        <v>0.7869429864450309</v>
+        <v>0.9377453636073851</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
       <c r="C13">
-        <v>0.7534782072524071</v>
+        <v>0.9027771644842786</v>
       </c>
       <c r="D13">
-        <v>0.7658148228477143</v>
+        <v>0.9216175901970746</v>
       </c>
       <c r="E13">
-        <v>0.7878948441993047</v>
+        <v>0.9112518643955154</v>
       </c>
       <c r="F13">
-        <v>0.7109821744849447</v>
+        <v>0.8685983173279967</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="I13">
+        <v>1.004616234956447</v>
+      </c>
       <c r="J13">
-        <v>0.7858270219382595</v>
+        <v>0.9372429730389081</v>
       </c>
       <c r="K13">
-        <v>0.7814935142181372</v>
+        <v>0.9383683372926629</v>
       </c>
       <c r="L13">
-        <v>0.8029949382389995</v>
+        <v>0.9282520743605672</v>
       </c>
       <c r="M13">
-        <v>0.7283151511768088</v>
+        <v>0.8867107290915826</v>
       </c>
       <c r="N13">
-        <v>0.7869429864450309</v>
+        <v>0.9385739655638951</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
       <c r="C14">
-        <v>0.7534782072524071</v>
+        <v>0.9059279857093706</v>
       </c>
       <c r="D14">
-        <v>0.7658148228477143</v>
+        <v>0.9243564347289264</v>
       </c>
       <c r="E14">
-        <v>0.7878948441993047</v>
+        <v>0.9146703680439969</v>
       </c>
       <c r="F14">
-        <v>0.7109821744849447</v>
+        <v>0.8739047705903551</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="I14">
+        <v>1.006368203248429</v>
+      </c>
       <c r="J14">
-        <v>0.7858270219382595</v>
+        <v>0.939857199323025</v>
       </c>
       <c r="K14">
-        <v>0.7814935142181372</v>
+        <v>0.9408803347062248</v>
       </c>
       <c r="L14">
-        <v>0.8029949382389995</v>
+        <v>0.9314226685158177</v>
       </c>
       <c r="M14">
-        <v>0.7283151511768088</v>
+        <v>0.8916939842783184</v>
       </c>
       <c r="N14">
-        <v>0.7869429864450309</v>
+        <v>0.9411919043491914</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
       <c r="C15">
-        <v>0.7534782072524071</v>
+        <v>0.9077954533926941</v>
       </c>
       <c r="D15">
-        <v>0.7658148228477143</v>
+        <v>0.925978550606928</v>
       </c>
       <c r="E15">
-        <v>0.7878948441993047</v>
+        <v>0.9166885426820353</v>
       </c>
       <c r="F15">
-        <v>0.7109821744849447</v>
+        <v>0.8770234741058569</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="I15">
+        <v>1.007393636230727</v>
+      </c>
       <c r="J15">
-        <v>0.7858270219382595</v>
+        <v>0.9414013556389906</v>
       </c>
       <c r="K15">
-        <v>0.7814935142181372</v>
+        <v>0.9423651799798125</v>
       </c>
       <c r="L15">
-        <v>0.8029949382389995</v>
+        <v>0.9332915417993904</v>
       </c>
       <c r="M15">
-        <v>0.7283151511768088</v>
+        <v>0.8946204499400585</v>
       </c>
       <c r="N15">
-        <v>0.7869429864450309</v>
+        <v>0.9427382535442429</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
       <c r="C16">
-        <v>0.7534782072524071</v>
+        <v>0.9177826334967858</v>
       </c>
       <c r="D16">
-        <v>0.7658148228477143</v>
+        <v>0.9346407312597534</v>
       </c>
       <c r="E16">
-        <v>0.7878948441993047</v>
+        <v>0.9273883996770966</v>
       </c>
       <c r="F16">
-        <v>0.7109821744849447</v>
+        <v>0.8933906747004926</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="I16">
+        <v>1.012722116022617</v>
+      </c>
       <c r="J16">
-        <v>0.7858270219382595</v>
+        <v>0.9495971562945998</v>
       </c>
       <c r="K16">
-        <v>0.7814935142181372</v>
+        <v>0.9502591229501648</v>
       </c>
       <c r="L16">
-        <v>0.8029949382389995</v>
+        <v>0.9431643255051914</v>
       </c>
       <c r="M16">
-        <v>0.7283151511768088</v>
+        <v>0.9099509807905953</v>
       </c>
       <c r="N16">
-        <v>0.7869429864450309</v>
+        <v>0.9509456931768541</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
       <c r="C17">
-        <v>0.7534782072524071</v>
+        <v>0.9234486805831158</v>
       </c>
       <c r="D17">
-        <v>0.7658148228477143</v>
+        <v>0.9395469599823179</v>
       </c>
       <c r="E17">
-        <v>0.7878948441993047</v>
+        <v>0.9333942097501846</v>
       </c>
       <c r="F17">
-        <v>0.7109821744849447</v>
+        <v>0.9024592899646765</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="I17">
+        <v>1.015634211633758</v>
+      </c>
       <c r="J17">
-        <v>0.7858270219382595</v>
+        <v>0.9542034254871651</v>
       </c>
       <c r="K17">
-        <v>0.7814935142181372</v>
+        <v>0.9547050253532195</v>
       </c>
       <c r="L17">
-        <v>0.8029949382389995</v>
+        <v>0.9486803749128999</v>
       </c>
       <c r="M17">
-        <v>0.7283151511768088</v>
+        <v>0.9184249105735585</v>
       </c>
       <c r="N17">
-        <v>0.7869429864450309</v>
+        <v>0.9555585038000195</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
       <c r="C18">
-        <v>0.7534782072524071</v>
+        <v>0.9265865743061394</v>
       </c>
       <c r="D18">
-        <v>0.7658148228477143</v>
+        <v>0.9422619877666144</v>
       </c>
       <c r="E18">
-        <v>0.7878948441993047</v>
+        <v>0.9367016882519651</v>
       </c>
       <c r="F18">
-        <v>0.7109821744849447</v>
+        <v>0.9074186349665273</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="I18">
+        <v>1.017213838712343</v>
+      </c>
       <c r="J18">
-        <v>0.7858270219382595</v>
+        <v>0.9567417727619613</v>
       </c>
       <c r="K18">
-        <v>0.7814935142181372</v>
+        <v>0.95715778487544</v>
       </c>
       <c r="L18">
-        <v>0.8029949382389995</v>
+        <v>0.9517104562922676</v>
       </c>
       <c r="M18">
-        <v>0.7283151511768088</v>
+        <v>0.9230527970183945</v>
       </c>
       <c r="N18">
-        <v>0.7869429864450309</v>
+        <v>0.9581004558190986</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
       <c r="C19">
-        <v>0.7534782072524071</v>
+        <v>0.927631487644368</v>
       </c>
       <c r="D19">
-        <v>0.7658148228477143</v>
+        <v>0.9431657925410792</v>
       </c>
       <c r="E19">
-        <v>0.7878948441993047</v>
+        <v>0.9378002432689964</v>
       </c>
       <c r="F19">
-        <v>0.7109821744849447</v>
+        <v>0.909060468341323</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="I19">
+        <v>1.01773470239994</v>
+      </c>
       <c r="J19">
-        <v>0.7858270219382595</v>
+        <v>0.9575851025584127</v>
       </c>
       <c r="K19">
-        <v>0.7814935142181372</v>
+        <v>0.9579731128706943</v>
       </c>
       <c r="L19">
-        <v>0.8029949382389995</v>
+        <v>0.9527156775933158</v>
       </c>
       <c r="M19">
-        <v>0.7283151511768088</v>
+        <v>0.9245839109633847</v>
       </c>
       <c r="N19">
-        <v>0.7869429864450309</v>
+        <v>0.9589449832405919</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
       <c r="C20">
-        <v>0.7534782072524071</v>
+        <v>0.9228588884205053</v>
       </c>
       <c r="D20">
-        <v>0.7658148228477143</v>
+        <v>0.9390364926547805</v>
       </c>
       <c r="E20">
-        <v>0.7878948441993047</v>
+        <v>0.9327710936461767</v>
       </c>
       <c r="F20">
-        <v>0.7109821744849447</v>
+        <v>0.9015222242301537</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="I20">
+        <v>1.015334697909698</v>
+      </c>
       <c r="J20">
-        <v>0.7858270219382595</v>
+        <v>0.9537253344576158</v>
       </c>
       <c r="K20">
-        <v>0.7814935142181372</v>
+        <v>0.9542432747483394</v>
       </c>
       <c r="L20">
-        <v>0.8029949382389995</v>
+        <v>0.9481089112235451</v>
       </c>
       <c r="M20">
-        <v>0.7283151511768088</v>
+        <v>0.9175499743444421</v>
       </c>
       <c r="N20">
-        <v>0.7869429864450309</v>
+        <v>0.9550797338263707</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
       <c r="C21">
-        <v>0.7534782072524071</v>
+        <v>0.9050162967229646</v>
       </c>
       <c r="D21">
-        <v>0.7658148228477143</v>
+        <v>0.9235642142347509</v>
       </c>
       <c r="E21">
-        <v>0.7878948441993047</v>
+        <v>0.9136829810510368</v>
       </c>
       <c r="F21">
-        <v>0.7109821744849447</v>
+        <v>0.8723751756491422</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="I21">
+        <v>1.005864120978785</v>
+      </c>
       <c r="J21">
-        <v>0.7858270219382595</v>
+        <v>0.9391019383854835</v>
       </c>
       <c r="K21">
-        <v>0.7814935142181372</v>
+        <v>0.9401543720677134</v>
       </c>
       <c r="L21">
-        <v>0.8029949382389995</v>
+        <v>0.9305075344337638</v>
       </c>
       <c r="M21">
-        <v>0.7283151511768088</v>
+        <v>0.8902580552709491</v>
       </c>
       <c r="N21">
-        <v>0.7869429864450309</v>
+        <v>0.9404355708544887</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
       <c r="C22">
-        <v>0.7534782072524071</v>
+        <v>0.890600324942747</v>
       </c>
       <c r="D22">
-        <v>0.7658148228477143</v>
+        <v>0.9110051101452904</v>
       </c>
       <c r="E22">
-        <v>0.7878948441993047</v>
+        <v>0.8978664870216979</v>
       </c>
       <c r="F22">
-        <v>0.7109821744849447</v>
+        <v>0.8475163245866522</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="I22">
+        <v>0.9975683205215012</v>
+      </c>
       <c r="J22">
-        <v>0.7858270219382595</v>
+        <v>0.9270250229147591</v>
       </c>
       <c r="K22">
-        <v>0.7814935142181372</v>
+        <v>0.9285728358320778</v>
       </c>
       <c r="L22">
-        <v>0.8029949382389995</v>
+        <v>0.9157745101631712</v>
       </c>
       <c r="M22">
-        <v>0.7283151511768088</v>
+        <v>0.866863745601246</v>
       </c>
       <c r="N22">
-        <v>0.7869429864450309</v>
+        <v>0.9283415047785541</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
       <c r="C23">
-        <v>0.7534782072524071</v>
+        <v>0.8987105528568182</v>
       </c>
       <c r="D23">
-        <v>0.7658148228477143</v>
+        <v>0.9180786717488527</v>
       </c>
       <c r="E23">
-        <v>0.7878948441993047</v>
+        <v>0.9068136544721902</v>
       </c>
       <c r="F23">
-        <v>0.7109821744849447</v>
+        <v>0.8616630950999556</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="I23">
+        <v>1.002313041090157</v>
+      </c>
       <c r="J23">
-        <v>0.7858270219382595</v>
+        <v>0.9338516376158053</v>
       </c>
       <c r="K23">
-        <v>0.7814935142181372</v>
+        <v>0.9351130959103137</v>
       </c>
       <c r="L23">
-        <v>0.8029949382389995</v>
+        <v>0.9241261776702752</v>
       </c>
       <c r="M23">
-        <v>0.7283151511768088</v>
+        <v>0.8801904836848589</v>
       </c>
       <c r="N23">
-        <v>0.7869429864450309</v>
+        <v>0.9351778140554995</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
       <c r="C24">
-        <v>0.7534782072524071</v>
+        <v>0.9231258952623926</v>
       </c>
       <c r="D24">
-        <v>0.7658148228477143</v>
+        <v>0.9392675944289794</v>
       </c>
       <c r="E24">
-        <v>0.7878948441993047</v>
+        <v>0.9330532442468804</v>
       </c>
       <c r="F24">
-        <v>0.7109821744849447</v>
+        <v>0.9019466415478489</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="I24">
+        <v>1.015470394732808</v>
+      </c>
       <c r="J24">
-        <v>0.7858270219382595</v>
+        <v>0.9539418118777433</v>
       </c>
       <c r="K24">
-        <v>0.7814935142181372</v>
+        <v>0.9544523446219024</v>
       </c>
       <c r="L24">
-        <v>0.8029949382389995</v>
+        <v>0.9483676972548392</v>
       </c>
       <c r="M24">
-        <v>0.7283151511768088</v>
+        <v>0.9179462714298315</v>
       </c>
       <c r="N24">
-        <v>0.7869429864450309</v>
+        <v>0.955296518669265</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
       <c r="C25">
-        <v>0.7534782072524071</v>
+        <v>0.9446292325578793</v>
       </c>
       <c r="D25">
-        <v>0.7658148228477143</v>
+        <v>0.957851728067406</v>
       </c>
       <c r="E25">
-        <v>0.7878948441993047</v>
+        <v>0.9554855750915767</v>
       </c>
       <c r="F25">
-        <v>0.7109821744849447</v>
+        <v>0.9351342501524569</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="I25">
+        <v>1.025854290888366</v>
+      </c>
       <c r="J25">
-        <v>0.7858270219382595</v>
+        <v>0.9711753754653704</v>
       </c>
       <c r="K25">
-        <v>0.7814935142181372</v>
+        <v>0.9711415905620072</v>
       </c>
       <c r="L25">
-        <v>0.8029949382389995</v>
+        <v>0.9688166022322591</v>
       </c>
       <c r="M25">
-        <v>0.7283151511768088</v>
+        <v>0.9488305459872244</v>
       </c>
       <c r="N25">
-        <v>0.7869429864450309</v>
+        <v>0.9725545558939038</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_61/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.959044579457996</v>
+        <v>1.02695203671007</v>
       </c>
       <c r="D2">
-        <v>0.9702904462154284</v>
+        <v>1.028328299136783</v>
       </c>
       <c r="E2">
-        <v>0.9702339714809153</v>
+        <v>1.035237822065761</v>
       </c>
       <c r="F2">
-        <v>0.956378838912365</v>
+        <v>1.041803740305805</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032221458540408</v>
+        <v>1.025334150679314</v>
       </c>
       <c r="J2">
-        <v>0.982523288891918</v>
+        <v>1.032112615282299</v>
       </c>
       <c r="K2">
-        <v>0.9821798089267304</v>
+        <v>1.031145435481519</v>
       </c>
       <c r="L2">
-        <v>0.9821241835498727</v>
+        <v>1.038035001126089</v>
       </c>
       <c r="M2">
-        <v>0.968481301140435</v>
+        <v>1.044582220857773</v>
       </c>
       <c r="N2">
-        <v>0.9839185846591407</v>
+        <v>1.033578333580972</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9684701011435072</v>
+        <v>1.028425232137423</v>
       </c>
       <c r="D3">
-        <v>0.9784197211754732</v>
+        <v>1.029631961451926</v>
       </c>
       <c r="E3">
-        <v>0.9797626764609577</v>
+        <v>1.036650300617254</v>
       </c>
       <c r="F3">
-        <v>0.9698659216612602</v>
+        <v>1.043557932578313</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036118053947107</v>
+        <v>1.025536983666918</v>
       </c>
       <c r="J3">
-        <v>0.9898588333895684</v>
+        <v>1.033223097584837</v>
       </c>
       <c r="K3">
-        <v>0.9893363810857708</v>
+        <v>1.032255673016592</v>
       </c>
       <c r="L3">
-        <v>0.9906612181572739</v>
+        <v>1.039255229838042</v>
       </c>
       <c r="M3">
-        <v>0.9808994678369377</v>
+        <v>1.046144642233662</v>
       </c>
       <c r="N3">
-        <v>0.9912645464713766</v>
+        <v>1.034690392895753</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9741906271266488</v>
+        <v>1.029370843346969</v>
       </c>
       <c r="D4">
-        <v>0.9833529823305296</v>
+        <v>1.03046877032298</v>
       </c>
       <c r="E4">
-        <v>0.9855028744599008</v>
+        <v>1.037554053670829</v>
       </c>
       <c r="F4">
-        <v>0.9778986682183278</v>
+        <v>1.044673777372807</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038373992452268</v>
+        <v>1.025657876763042</v>
       </c>
       <c r="J4">
-        <v>0.9942784020773735</v>
+        <v>1.033933687660707</v>
       </c>
       <c r="K4">
-        <v>0.9936565631138518</v>
+        <v>1.032966803884295</v>
       </c>
       <c r="L4">
-        <v>0.9957794744431234</v>
+        <v>1.040034094668599</v>
       </c>
       <c r="M4">
-        <v>0.9882713646695837</v>
+        <v>1.047136003077589</v>
       </c>
       <c r="N4">
-        <v>0.9956903914536501</v>
+        <v>1.035401992091036</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9765162222297258</v>
+        <v>1.029766572281228</v>
       </c>
       <c r="D5">
-        <v>0.9853585102175421</v>
+        <v>1.030818970224196</v>
       </c>
       <c r="E5">
-        <v>0.9878272210030123</v>
+        <v>1.037931572896479</v>
       </c>
       <c r="F5">
-        <v>0.981131206081455</v>
+        <v>1.045138317271887</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039266417477308</v>
+        <v>1.025706230056725</v>
       </c>
       <c r="J5">
-        <v>0.9960679928289221</v>
+        <v>1.034230533349913</v>
       </c>
       <c r="K5">
-        <v>0.9954077894309133</v>
+        <v>1.033264043358741</v>
       </c>
       <c r="L5">
-        <v>0.9978464639552308</v>
+        <v>1.040358992102016</v>
       </c>
       <c r="M5">
-        <v>0.9912323547815001</v>
+        <v>1.047548112421339</v>
       </c>
       <c r="N5">
-        <v>0.997482523629335</v>
+        <v>1.03569925933517</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9769023279198468</v>
+        <v>1.029832911684563</v>
       </c>
       <c r="D6">
-        <v>0.9856914785461781</v>
+        <v>1.030877677410525</v>
       </c>
       <c r="E6">
-        <v>0.9882126008350012</v>
+        <v>1.037994818964872</v>
       </c>
       <c r="F6">
-        <v>0.9816660286092009</v>
+        <v>1.045216049308911</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039413162506051</v>
+        <v>1.025714204161799</v>
       </c>
       <c r="J6">
-        <v>0.9963647060415294</v>
+        <v>1.034280265010944</v>
       </c>
       <c r="K6">
-        <v>0.9956982489732693</v>
+        <v>1.033313850871799</v>
       </c>
       <c r="L6">
-        <v>0.9981888577008986</v>
+        <v>1.040413395729891</v>
       </c>
       <c r="M6">
-        <v>0.9917219237841317</v>
+        <v>1.047617035337502</v>
       </c>
       <c r="N6">
-        <v>0.9977796582087376</v>
+        <v>1.035749061620864</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.974222000553266</v>
+        <v>1.029376138160909</v>
       </c>
       <c r="D7">
-        <v>0.9833800378345589</v>
+        <v>1.030473455949138</v>
       </c>
       <c r="E7">
-        <v>0.9855342666505705</v>
+        <v>1.037559107569086</v>
       </c>
       <c r="F7">
-        <v>0.9779424042408188</v>
+        <v>1.044680002443213</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038386128410228</v>
+        <v>1.025658532557239</v>
       </c>
       <c r="J7">
-        <v>0.9943025721148132</v>
+        <v>1.033937661512218</v>
       </c>
       <c r="K7">
-        <v>0.9936802076765348</v>
+        <v>1.032970782344829</v>
       </c>
       <c r="L7">
-        <v>0.9958074123974788</v>
+        <v>1.040038445900702</v>
       </c>
       <c r="M7">
-        <v>0.9883114488743494</v>
+        <v>1.047141527955253</v>
       </c>
       <c r="N7">
-        <v>0.9957145958153155</v>
+        <v>1.035405971585872</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9623160762690468</v>
+        <v>1.027451507823952</v>
       </c>
       <c r="D8">
-        <v>0.9731122366749502</v>
+        <v>1.028770288034655</v>
       </c>
       <c r="E8">
-        <v>0.9735513269795451</v>
+        <v>1.035717307604062</v>
       </c>
       <c r="F8">
-        <v>0.9610956707827789</v>
+        <v>1.042400587639863</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033598529379869</v>
+        <v>1.025404848216088</v>
       </c>
       <c r="J8">
-        <v>0.9850768932014664</v>
+        <v>1.032489570303923</v>
       </c>
       <c r="K8">
-        <v>0.984669172775256</v>
+        <v>1.031522162420935</v>
       </c>
       <c r="L8">
-        <v>0.9851018950961704</v>
+        <v>1.038449615395558</v>
       </c>
       <c r="M8">
-        <v>0.9728297526025086</v>
+        <v>1.045114338450558</v>
       </c>
       <c r="N8">
-        <v>0.9864758153797113</v>
+        <v>1.033955823921963</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9377085964357069</v>
+        <v>1.0240003671133</v>
       </c>
       <c r="D9">
-        <v>0.9518755930751921</v>
+        <v>1.02571641300826</v>
       </c>
       <c r="E9">
-        <v>0.948325612761882</v>
+        <v>1.032392296412668</v>
       </c>
       <c r="F9">
-        <v>0.9246581699925405</v>
+        <v>1.038234551398291</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.022628132226558</v>
+        <v>1.02487809101332</v>
       </c>
       <c r="J9">
-        <v>0.9656704836224473</v>
+        <v>1.02987584451053</v>
       </c>
       <c r="K9">
-        <v>0.965800894241707</v>
+        <v>1.028912906184225</v>
       </c>
       <c r="L9">
-        <v>0.9623166686539818</v>
+        <v>1.035566688072133</v>
       </c>
       <c r="M9">
-        <v>0.9391045733131034</v>
+        <v>1.041389856971178</v>
       </c>
       <c r="N9">
-        <v>0.9670418464731438</v>
+        <v>1.031338386338145</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.917116731204579</v>
+        <v>1.021657774913725</v>
       </c>
       <c r="D10">
-        <v>0.9340637774585466</v>
+        <v>1.023643603798699</v>
       </c>
       <c r="E10">
-        <v>0.9266796214898687</v>
+        <v>1.030120233343479</v>
       </c>
       <c r="F10">
-        <v>0.8923149483788413</v>
+        <v>1.03535359094919</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.012374721545232</v>
+        <v>1.02447261189647</v>
       </c>
       <c r="J10">
-        <v>0.949053811795124</v>
+        <v>1.028090195721257</v>
       </c>
       <c r="K10">
-        <v>0.9497351293817642</v>
+        <v>1.027133939128689</v>
       </c>
       <c r="L10">
-        <v>0.9425121499766103</v>
+        <v>1.033586972012599</v>
       </c>
       <c r="M10">
-        <v>0.908944828890099</v>
+        <v>1.038801500657834</v>
       </c>
       <c r="N10">
-        <v>0.9504015770658669</v>
+        <v>1.029550201722775</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9062885542802926</v>
+        <v>1.020633080685022</v>
       </c>
       <c r="D11">
-        <v>0.9246696969384173</v>
+        <v>1.022736950987595</v>
       </c>
       <c r="E11">
-        <v>0.9150604873840592</v>
+        <v>1.029122805664956</v>
       </c>
       <c r="F11">
-        <v>0.8745084309248932</v>
+        <v>1.03408077023702</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.006566933531324</v>
+        <v>1.024283973241851</v>
       </c>
       <c r="J11">
-        <v>0.9401556440749969</v>
+        <v>1.027306397382977</v>
       </c>
       <c r="K11">
-        <v>0.9411672545570026</v>
+        <v>1.026353929464155</v>
       </c>
       <c r="L11">
-        <v>0.9317840966016145</v>
+        <v>1.032715592772162</v>
       </c>
       <c r="M11">
-        <v>0.892260566898936</v>
+        <v>1.037655003309166</v>
       </c>
       <c r="N11">
-        <v>0.9414907729269428</v>
+        <v>1.028765290300951</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9017827797445467</v>
+        <v>1.020250874109158</v>
       </c>
       <c r="D12">
-        <v>0.920752675012414</v>
+        <v>1.022398778611398</v>
       </c>
       <c r="E12">
-        <v>0.9101693939255211</v>
+        <v>1.028750229881936</v>
       </c>
       <c r="F12">
-        <v>0.8669116737748193</v>
+        <v>1.033604110529106</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.004057495724615</v>
+        <v>1.024211924498206</v>
       </c>
       <c r="J12">
-        <v>0.9364155461235252</v>
+        <v>1.027013634870503</v>
       </c>
       <c r="K12">
-        <v>0.9375737491769085</v>
+        <v>1.026062710368655</v>
       </c>
       <c r="L12">
-        <v>0.9272467804215365</v>
+        <v>1.032389757847781</v>
       </c>
       <c r="M12">
-        <v>0.8851257838290522</v>
+        <v>1.037225212800216</v>
       </c>
       <c r="N12">
-        <v>0.9377453636073851</v>
+        <v>1.028472112032129</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9027771644842786</v>
+        <v>1.02033293125313</v>
       </c>
       <c r="D13">
-        <v>0.9216175901970746</v>
+        <v>1.022471381671761</v>
       </c>
       <c r="E13">
-        <v>0.9112518643955154</v>
+        <v>1.028830243781061</v>
       </c>
       <c r="F13">
-        <v>0.8685983173279967</v>
+        <v>1.033706532273989</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.004616234956447</v>
+        <v>1.024227469088018</v>
       </c>
       <c r="J13">
-        <v>0.9372429730389081</v>
+        <v>1.027076507490683</v>
       </c>
       <c r="K13">
-        <v>0.9383683372926629</v>
+        <v>1.026125245733401</v>
       </c>
       <c r="L13">
-        <v>0.9282520743605672</v>
+        <v>1.032459749223683</v>
       </c>
       <c r="M13">
-        <v>0.8867107290915826</v>
+        <v>1.037317583279037</v>
       </c>
       <c r="N13">
-        <v>0.9385739655638951</v>
+        <v>1.028535073938642</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9059279857093706</v>
+        <v>1.020601520013962</v>
       </c>
       <c r="D14">
-        <v>0.9243564347289264</v>
+        <v>1.022709026327905</v>
       </c>
       <c r="E14">
-        <v>0.9146703680439969</v>
+        <v>1.029092051254627</v>
       </c>
       <c r="F14">
-        <v>0.8739047705903551</v>
+        <v>1.034041448911041</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.006368203248429</v>
+        <v>1.024278058165635</v>
       </c>
       <c r="J14">
-        <v>0.939857199323025</v>
+        <v>1.02728223088289</v>
       </c>
       <c r="K14">
-        <v>0.9408803347062248</v>
+        <v>1.026329887756639</v>
       </c>
       <c r="L14">
-        <v>0.9314226685158177</v>
+        <v>1.032688703578865</v>
       </c>
       <c r="M14">
-        <v>0.8916939842783184</v>
+        <v>1.037619557264316</v>
       </c>
       <c r="N14">
-        <v>0.9411919043491914</v>
+        <v>1.028741089481663</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9077954533926941</v>
+        <v>1.020766794663387</v>
       </c>
       <c r="D15">
-        <v>0.925978550606928</v>
+        <v>1.022855260391097</v>
       </c>
       <c r="E15">
-        <v>0.9166885426820353</v>
+        <v>1.029253081671567</v>
       </c>
       <c r="F15">
-        <v>0.8770234741058569</v>
+        <v>1.034247286164951</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.007393636230727</v>
+        <v>1.024308964862676</v>
       </c>
       <c r="J15">
-        <v>0.9414013556389906</v>
+        <v>1.027408767544069</v>
       </c>
       <c r="K15">
-        <v>0.9423651799798125</v>
+        <v>1.026455776239605</v>
       </c>
       <c r="L15">
-        <v>0.9332915417993904</v>
+        <v>1.032829481676995</v>
       </c>
       <c r="M15">
-        <v>0.8946204499400585</v>
+        <v>1.037805090559311</v>
       </c>
       <c r="N15">
-        <v>0.9427382535442429</v>
+        <v>1.028867805839414</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9177826334967858</v>
+        <v>1.021725559636049</v>
       </c>
       <c r="D16">
-        <v>0.9346407312597534</v>
+        <v>1.023703580663686</v>
       </c>
       <c r="E16">
-        <v>0.9273883996770966</v>
+        <v>1.030186139057569</v>
       </c>
       <c r="F16">
-        <v>0.8933906747004926</v>
+        <v>1.035437524014317</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.012722116022617</v>
+        <v>1.024484854543758</v>
       </c>
       <c r="J16">
-        <v>0.9495971562945998</v>
+        <v>1.028141987774226</v>
       </c>
       <c r="K16">
-        <v>0.9502591229501648</v>
+        <v>1.027185498740502</v>
       </c>
       <c r="L16">
-        <v>0.9431643255051914</v>
+        <v>1.033644501100336</v>
       </c>
       <c r="M16">
-        <v>0.9099509807905953</v>
+        <v>1.038877042436684</v>
       </c>
       <c r="N16">
-        <v>0.9509456931768541</v>
+        <v>1.029602067326401</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9234486805831158</v>
+        <v>1.022324174951516</v>
       </c>
       <c r="D17">
-        <v>0.9395469599823179</v>
+        <v>1.024233247676435</v>
       </c>
       <c r="E17">
-        <v>0.9333942097501846</v>
+        <v>1.030767748665445</v>
       </c>
       <c r="F17">
-        <v>0.9024592899646765</v>
+        <v>1.036177295095913</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.015634211633758</v>
+        <v>1.024591676234832</v>
       </c>
       <c r="J17">
-        <v>0.9542034254871651</v>
+        <v>1.028599057088119</v>
       </c>
       <c r="K17">
-        <v>0.9547050253532195</v>
+        <v>1.027640614857939</v>
       </c>
       <c r="L17">
-        <v>0.9486803749128999</v>
+        <v>1.034151925468072</v>
       </c>
       <c r="M17">
-        <v>0.9184249105735585</v>
+        <v>1.039542517653138</v>
       </c>
       <c r="N17">
-        <v>0.9555585038000195</v>
+        <v>1.030059785731145</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9265865743061394</v>
+        <v>1.022672342396025</v>
       </c>
       <c r="D18">
-        <v>0.9422619877666144</v>
+        <v>1.024541316488006</v>
       </c>
       <c r="E18">
-        <v>0.9367016882519651</v>
+        <v>1.031105681562994</v>
       </c>
       <c r="F18">
-        <v>0.9074186349665273</v>
+        <v>1.036606350447978</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.017213838712343</v>
+        <v>1.024652724325991</v>
       </c>
       <c r="J18">
-        <v>0.9567417727619613</v>
+        <v>1.028864637349602</v>
       </c>
       <c r="K18">
-        <v>0.95715778487544</v>
+        <v>1.027905142135981</v>
       </c>
       <c r="L18">
-        <v>0.9517104562922676</v>
+        <v>1.034446535158773</v>
       </c>
       <c r="M18">
-        <v>0.9230527970183945</v>
+        <v>1.039928200943681</v>
       </c>
       <c r="N18">
-        <v>0.9581004558190986</v>
+        <v>1.030325743147061</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.927631487644368</v>
+        <v>1.022790890853636</v>
       </c>
       <c r="D19">
-        <v>0.9431657925410792</v>
+        <v>1.024646212184933</v>
       </c>
       <c r="E19">
-        <v>0.9378002432689964</v>
+        <v>1.031220686965702</v>
       </c>
       <c r="F19">
-        <v>0.909060468341323</v>
+        <v>1.036752235313707</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.01773470239994</v>
+        <v>1.024673327068774</v>
       </c>
       <c r="J19">
-        <v>0.9575851025584127</v>
+        <v>1.028955021207597</v>
       </c>
       <c r="K19">
-        <v>0.9579731128706943</v>
+        <v>1.027995181541826</v>
       </c>
       <c r="L19">
-        <v>0.9527156775933158</v>
+        <v>1.03454675955322</v>
       </c>
       <c r="M19">
-        <v>0.9245839109633847</v>
+        <v>1.040059290751804</v>
       </c>
       <c r="N19">
-        <v>0.9589449832405919</v>
+        <v>1.030416255360503</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9228588884205053</v>
+        <v>1.022260052343485</v>
       </c>
       <c r="D20">
-        <v>0.9390364926547805</v>
+        <v>1.024176510357532</v>
       </c>
       <c r="E20">
-        <v>0.9327710936461767</v>
+        <v>1.030705483271037</v>
       </c>
       <c r="F20">
-        <v>0.9015222242301537</v>
+        <v>1.036098177593963</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.015334697909698</v>
+        <v>1.024580345643575</v>
       </c>
       <c r="J20">
-        <v>0.9537253344576158</v>
+        <v>1.028550123663682</v>
       </c>
       <c r="K20">
-        <v>0.9542432747483394</v>
+        <v>1.027591882057043</v>
       </c>
       <c r="L20">
-        <v>0.9481089112235451</v>
+        <v>1.03409762483436</v>
       </c>
       <c r="M20">
-        <v>0.9175499743444421</v>
+        <v>1.039471375148229</v>
       </c>
       <c r="N20">
-        <v>0.9550797338263707</v>
+        <v>1.030010782815633</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9050162967229646</v>
+        <v>1.02052247149912</v>
       </c>
       <c r="D21">
-        <v>0.9235642142347509</v>
+        <v>1.022639084843775</v>
       </c>
       <c r="E21">
-        <v>0.9136829810510368</v>
+        <v>1.029015013431654</v>
       </c>
       <c r="F21">
-        <v>0.8723751756491422</v>
+        <v>1.0339429319215</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.005864120978785</v>
+        <v>1.024263215745136</v>
       </c>
       <c r="J21">
-        <v>0.9391019383854835</v>
+        <v>1.027221695594264</v>
       </c>
       <c r="K21">
-        <v>0.9401543720677134</v>
+        <v>1.026269667132859</v>
       </c>
       <c r="L21">
-        <v>0.9305075344337638</v>
+        <v>1.032621342349305</v>
       </c>
       <c r="M21">
-        <v>0.8902580552709491</v>
+        <v>1.03753074249632</v>
       </c>
       <c r="N21">
-        <v>0.9404355708544887</v>
+        <v>1.028680468225983</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.890600324942747</v>
+        <v>1.019420769627559</v>
       </c>
       <c r="D22">
-        <v>0.9110051101452904</v>
+        <v>1.021664320733623</v>
       </c>
       <c r="E22">
-        <v>0.8978664870216979</v>
+        <v>1.027940052341917</v>
       </c>
       <c r="F22">
-        <v>0.8475163245866522</v>
+        <v>1.032565372695479</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9975683205215012</v>
+        <v>1.024052358661788</v>
       </c>
       <c r="J22">
-        <v>0.9270250229147591</v>
+        <v>1.026377041723628</v>
       </c>
       <c r="K22">
-        <v>0.9285728358320778</v>
+        <v>1.025429708213921</v>
       </c>
       <c r="L22">
-        <v>0.9157745101631712</v>
+        <v>1.031680592447062</v>
       </c>
       <c r="M22">
-        <v>0.866863745601246</v>
+        <v>1.036287814640317</v>
       </c>
       <c r="N22">
-        <v>0.9283415047785541</v>
+        <v>1.027834614849968</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.8987105528568182</v>
+        <v>1.02000568886333</v>
       </c>
       <c r="D23">
-        <v>0.9180786717488527</v>
+        <v>1.022181842781704</v>
       </c>
       <c r="E23">
-        <v>0.9068136544721902</v>
+        <v>1.028511070696013</v>
       </c>
       <c r="F23">
-        <v>0.8616630950999556</v>
+        <v>1.033297797063313</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.002313041090157</v>
+        <v>1.024165230868542</v>
       </c>
       <c r="J23">
-        <v>0.9338516376158053</v>
+        <v>1.026825712689849</v>
       </c>
       <c r="K23">
-        <v>0.9351130959103137</v>
+        <v>1.025875814994903</v>
       </c>
       <c r="L23">
-        <v>0.9241261776702752</v>
+        <v>1.032180505558566</v>
       </c>
       <c r="M23">
-        <v>0.8801904836848589</v>
+        <v>1.036948895999379</v>
       </c>
       <c r="N23">
-        <v>0.9351778140554995</v>
+        <v>1.028283922980424</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9231258952623926</v>
+        <v>1.022289029662023</v>
       </c>
       <c r="D24">
-        <v>0.9392675944289794</v>
+        <v>1.02420215021819</v>
       </c>
       <c r="E24">
-        <v>0.9330532442468804</v>
+        <v>1.030733622368928</v>
       </c>
       <c r="F24">
-        <v>0.9019466415478489</v>
+        <v>1.03613393492542</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.015470394732808</v>
+        <v>1.02458546934014</v>
       </c>
       <c r="J24">
-        <v>0.9539418118777433</v>
+        <v>1.028572237723803</v>
       </c>
       <c r="K24">
-        <v>0.9544523446219024</v>
+        <v>1.027613905197503</v>
       </c>
       <c r="L24">
-        <v>0.9483676972548392</v>
+        <v>1.034122165161121</v>
       </c>
       <c r="M24">
-        <v>0.9179462714298315</v>
+        <v>1.03950352903489</v>
       </c>
       <c r="N24">
-        <v>0.955296518669265</v>
+        <v>1.030032928280256</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9446292325578793</v>
+        <v>1.024899812923783</v>
       </c>
       <c r="D25">
-        <v>0.957851728067406</v>
+        <v>1.026512302106446</v>
       </c>
       <c r="E25">
-        <v>0.9554855750915767</v>
+        <v>1.033261506263614</v>
       </c>
       <c r="F25">
-        <v>0.9351342501524569</v>
+        <v>1.039329589526382</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025854290888366</v>
+        <v>1.025023786491368</v>
       </c>
       <c r="J25">
-        <v>0.9711753754653704</v>
+        <v>1.030559049762864</v>
       </c>
       <c r="K25">
-        <v>0.9711415905620072</v>
+        <v>1.029594308941602</v>
       </c>
       <c r="L25">
-        <v>0.9688166022322591</v>
+        <v>1.036322034740333</v>
       </c>
       <c r="M25">
-        <v>0.9488305459872244</v>
+        <v>1.042371067472507</v>
       </c>
       <c r="N25">
-        <v>0.9725545558939038</v>
+        <v>1.032022561820302</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_61/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.02695203671007</v>
+        <v>0.9590445794579963</v>
       </c>
       <c r="D2">
-        <v>1.028328299136783</v>
+        <v>0.9702904462154288</v>
       </c>
       <c r="E2">
-        <v>1.035237822065761</v>
+        <v>0.9702339714809154</v>
       </c>
       <c r="F2">
-        <v>1.041803740305805</v>
+        <v>0.9563788389123652</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.025334150679314</v>
+        <v>1.032221458540408</v>
       </c>
       <c r="J2">
-        <v>1.032112615282299</v>
+        <v>0.9825232888919183</v>
       </c>
       <c r="K2">
-        <v>1.031145435481519</v>
+        <v>0.982179808926731</v>
       </c>
       <c r="L2">
-        <v>1.038035001126089</v>
+        <v>0.9821241835498729</v>
       </c>
       <c r="M2">
-        <v>1.044582220857773</v>
+        <v>0.9684813011404353</v>
       </c>
       <c r="N2">
-        <v>1.033578333580972</v>
+        <v>0.9839185846591412</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.028425232137423</v>
+        <v>0.9684701011435072</v>
       </c>
       <c r="D3">
-        <v>1.029631961451926</v>
+        <v>0.9784197211754735</v>
       </c>
       <c r="E3">
-        <v>1.036650300617254</v>
+        <v>0.9797626764609576</v>
       </c>
       <c r="F3">
-        <v>1.043557932578313</v>
+        <v>0.96986592166126</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.025536983666918</v>
+        <v>1.036118053947107</v>
       </c>
       <c r="J3">
-        <v>1.033223097584837</v>
+        <v>0.9898588333895684</v>
       </c>
       <c r="K3">
-        <v>1.032255673016592</v>
+        <v>0.9893363810857709</v>
       </c>
       <c r="L3">
-        <v>1.039255229838042</v>
+        <v>0.9906612181572737</v>
       </c>
       <c r="M3">
-        <v>1.046144642233662</v>
+        <v>0.9808994678369376</v>
       </c>
       <c r="N3">
-        <v>1.034690392895753</v>
+        <v>0.9912645464713766</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029370843346969</v>
+        <v>0.9741906271266491</v>
       </c>
       <c r="D4">
-        <v>1.03046877032298</v>
+        <v>0.9833529823305297</v>
       </c>
       <c r="E4">
-        <v>1.037554053670829</v>
+        <v>0.9855028744599009</v>
       </c>
       <c r="F4">
-        <v>1.044673777372807</v>
+        <v>0.9778986682183282</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.025657876763042</v>
+        <v>1.038373992452267</v>
       </c>
       <c r="J4">
-        <v>1.033933687660707</v>
+        <v>0.9942784020773737</v>
       </c>
       <c r="K4">
-        <v>1.032966803884295</v>
+        <v>0.993656563113852</v>
       </c>
       <c r="L4">
-        <v>1.040034094668599</v>
+        <v>0.9957794744431235</v>
       </c>
       <c r="M4">
-        <v>1.047136003077589</v>
+        <v>0.988271364669584</v>
       </c>
       <c r="N4">
-        <v>1.035401992091036</v>
+        <v>0.9956903914536502</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.029766572281228</v>
+        <v>0.9765162222297258</v>
       </c>
       <c r="D5">
-        <v>1.030818970224196</v>
+        <v>0.9853585102175422</v>
       </c>
       <c r="E5">
-        <v>1.037931572896479</v>
+        <v>0.9878272210030127</v>
       </c>
       <c r="F5">
-        <v>1.045138317271887</v>
+        <v>0.9811312060814551</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.025706230056725</v>
+        <v>1.039266417477308</v>
       </c>
       <c r="J5">
-        <v>1.034230533349913</v>
+        <v>0.9960679928289223</v>
       </c>
       <c r="K5">
-        <v>1.033264043358741</v>
+        <v>0.9954077894309135</v>
       </c>
       <c r="L5">
-        <v>1.040358992102016</v>
+        <v>0.997846463955231</v>
       </c>
       <c r="M5">
-        <v>1.047548112421339</v>
+        <v>0.9912323547815002</v>
       </c>
       <c r="N5">
-        <v>1.03569925933517</v>
+        <v>0.9974825236293354</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.029832911684563</v>
+        <v>0.9769023279198475</v>
       </c>
       <c r="D6">
-        <v>1.030877677410525</v>
+        <v>0.9856914785461793</v>
       </c>
       <c r="E6">
-        <v>1.037994818964872</v>
+        <v>0.9882126008350021</v>
       </c>
       <c r="F6">
-        <v>1.045216049308911</v>
+        <v>0.981666028609202</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.025714204161799</v>
+        <v>1.039413162506051</v>
       </c>
       <c r="J6">
-        <v>1.034280265010944</v>
+        <v>0.9963647060415304</v>
       </c>
       <c r="K6">
-        <v>1.033313850871799</v>
+        <v>0.9956982489732703</v>
       </c>
       <c r="L6">
-        <v>1.040413395729891</v>
+        <v>0.9981888577008995</v>
       </c>
       <c r="M6">
-        <v>1.047617035337502</v>
+        <v>0.9917219237841327</v>
       </c>
       <c r="N6">
-        <v>1.035749061620864</v>
+        <v>0.9977796582087388</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029376138160909</v>
+        <v>0.9742220005532664</v>
       </c>
       <c r="D7">
-        <v>1.030473455949138</v>
+        <v>0.9833800378345592</v>
       </c>
       <c r="E7">
-        <v>1.037559107569086</v>
+        <v>0.9855342666505709</v>
       </c>
       <c r="F7">
-        <v>1.044680002443213</v>
+        <v>0.9779424042408194</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.025658532557239</v>
+        <v>1.038386128410228</v>
       </c>
       <c r="J7">
-        <v>1.033937661512218</v>
+        <v>0.9943025721148135</v>
       </c>
       <c r="K7">
-        <v>1.032970782344829</v>
+        <v>0.9936802076765351</v>
       </c>
       <c r="L7">
-        <v>1.040038445900702</v>
+        <v>0.9958074123974792</v>
       </c>
       <c r="M7">
-        <v>1.047141527955253</v>
+        <v>0.9883114488743497</v>
       </c>
       <c r="N7">
-        <v>1.035405971585872</v>
+        <v>0.9957145958153157</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027451507823952</v>
+        <v>0.9623160762690477</v>
       </c>
       <c r="D8">
-        <v>1.028770288034655</v>
+        <v>0.9731122366749509</v>
       </c>
       <c r="E8">
-        <v>1.035717307604062</v>
+        <v>0.9735513269795452</v>
       </c>
       <c r="F8">
-        <v>1.042400587639863</v>
+        <v>0.9610956707827791</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.025404848216088</v>
+        <v>1.033598529379869</v>
       </c>
       <c r="J8">
-        <v>1.032489570303923</v>
+        <v>0.9850768932014671</v>
       </c>
       <c r="K8">
-        <v>1.031522162420935</v>
+        <v>0.9846691727752567</v>
       </c>
       <c r="L8">
-        <v>1.038449615395558</v>
+        <v>0.9851018950961707</v>
       </c>
       <c r="M8">
-        <v>1.045114338450558</v>
+        <v>0.9728297526025088</v>
       </c>
       <c r="N8">
-        <v>1.033955823921963</v>
+        <v>0.9864758153797119</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.0240003671133</v>
+        <v>0.937708596435708</v>
       </c>
       <c r="D9">
-        <v>1.02571641300826</v>
+        <v>0.9518755930751928</v>
       </c>
       <c r="E9">
-        <v>1.032392296412668</v>
+        <v>0.948325612761883</v>
       </c>
       <c r="F9">
-        <v>1.038234551398291</v>
+        <v>0.9246581699925419</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.02487809101332</v>
+        <v>1.022628132226559</v>
       </c>
       <c r="J9">
-        <v>1.02987584451053</v>
+        <v>0.9656704836224481</v>
       </c>
       <c r="K9">
-        <v>1.028912906184225</v>
+        <v>0.9658008942417076</v>
       </c>
       <c r="L9">
-        <v>1.035566688072133</v>
+        <v>0.9623166686539827</v>
       </c>
       <c r="M9">
-        <v>1.041389856971178</v>
+        <v>0.9391045733131046</v>
       </c>
       <c r="N9">
-        <v>1.031338386338145</v>
+        <v>0.9670418464731446</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.021657774913725</v>
+        <v>0.9171167312045801</v>
       </c>
       <c r="D10">
-        <v>1.023643603798699</v>
+        <v>0.9340637774585474</v>
       </c>
       <c r="E10">
-        <v>1.030120233343479</v>
+        <v>0.9266796214898699</v>
       </c>
       <c r="F10">
-        <v>1.03535359094919</v>
+        <v>0.8923149483788426</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02447261189647</v>
+        <v>1.012374721545232</v>
       </c>
       <c r="J10">
-        <v>1.028090195721257</v>
+        <v>0.949053811795125</v>
       </c>
       <c r="K10">
-        <v>1.027133939128689</v>
+        <v>0.949735129381765</v>
       </c>
       <c r="L10">
-        <v>1.033586972012599</v>
+        <v>0.9425121499766115</v>
       </c>
       <c r="M10">
-        <v>1.038801500657834</v>
+        <v>0.9089448288901004</v>
       </c>
       <c r="N10">
-        <v>1.029550201722775</v>
+        <v>0.9504015770658679</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.020633080685022</v>
+        <v>0.9062885542802912</v>
       </c>
       <c r="D11">
-        <v>1.022736950987595</v>
+        <v>0.9246696969384161</v>
       </c>
       <c r="E11">
-        <v>1.029122805664956</v>
+        <v>0.9150604873840579</v>
       </c>
       <c r="F11">
-        <v>1.03408077023702</v>
+        <v>0.8745084309248915</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024283973241851</v>
+        <v>1.006566933531324</v>
       </c>
       <c r="J11">
-        <v>1.027306397382977</v>
+        <v>0.9401556440749956</v>
       </c>
       <c r="K11">
-        <v>1.026353929464155</v>
+        <v>0.9411672545570013</v>
       </c>
       <c r="L11">
-        <v>1.032715592772162</v>
+        <v>0.9317840966016132</v>
       </c>
       <c r="M11">
-        <v>1.037655003309166</v>
+        <v>0.8922605668989344</v>
       </c>
       <c r="N11">
-        <v>1.028765290300951</v>
+        <v>0.9414907729269417</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.020250874109158</v>
+        <v>0.9017827797445467</v>
       </c>
       <c r="D12">
-        <v>1.022398778611398</v>
+        <v>0.9207526750124141</v>
       </c>
       <c r="E12">
-        <v>1.028750229881936</v>
+        <v>0.9101693939255213</v>
       </c>
       <c r="F12">
-        <v>1.033604110529106</v>
+        <v>0.8669116737748197</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024211924498206</v>
+        <v>1.004057495724615</v>
       </c>
       <c r="J12">
-        <v>1.027013634870503</v>
+        <v>0.9364155461235252</v>
       </c>
       <c r="K12">
-        <v>1.026062710368655</v>
+        <v>0.9375737491769084</v>
       </c>
       <c r="L12">
-        <v>1.032389757847781</v>
+        <v>0.9272467804215369</v>
       </c>
       <c r="M12">
-        <v>1.037225212800216</v>
+        <v>0.8851257838290524</v>
       </c>
       <c r="N12">
-        <v>1.028472112032129</v>
+        <v>0.937745363607385</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.02033293125313</v>
+        <v>0.9027771644842787</v>
       </c>
       <c r="D13">
-        <v>1.022471381671761</v>
+        <v>0.9216175901970747</v>
       </c>
       <c r="E13">
-        <v>1.028830243781061</v>
+        <v>0.9112518643955155</v>
       </c>
       <c r="F13">
-        <v>1.033706532273989</v>
+        <v>0.868598317327997</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024227469088018</v>
+        <v>1.004616234956446</v>
       </c>
       <c r="J13">
-        <v>1.027076507490683</v>
+        <v>0.9372429730389081</v>
       </c>
       <c r="K13">
-        <v>1.026125245733401</v>
+        <v>0.9383683372926629</v>
       </c>
       <c r="L13">
-        <v>1.032459749223683</v>
+        <v>0.9282520743605674</v>
       </c>
       <c r="M13">
-        <v>1.037317583279037</v>
+        <v>0.8867107290915827</v>
       </c>
       <c r="N13">
-        <v>1.028535073938642</v>
+        <v>0.9385739655638953</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.020601520013962</v>
+        <v>0.9059279857093694</v>
       </c>
       <c r="D14">
-        <v>1.022709026327905</v>
+        <v>0.924356434728925</v>
       </c>
       <c r="E14">
-        <v>1.029092051254627</v>
+        <v>0.9146703680439959</v>
       </c>
       <c r="F14">
-        <v>1.034041448911041</v>
+        <v>0.8739047705903539</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024278058165635</v>
+        <v>1.006368203248429</v>
       </c>
       <c r="J14">
-        <v>1.02728223088289</v>
+        <v>0.9398571993230239</v>
       </c>
       <c r="K14">
-        <v>1.026329887756639</v>
+        <v>0.9408803347062235</v>
       </c>
       <c r="L14">
-        <v>1.032688703578865</v>
+        <v>0.9314226685158166</v>
       </c>
       <c r="M14">
-        <v>1.037619557264316</v>
+        <v>0.8916939842783173</v>
       </c>
       <c r="N14">
-        <v>1.028741089481663</v>
+        <v>0.9411919043491902</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.020766794663387</v>
+        <v>0.9077954533926934</v>
       </c>
       <c r="D15">
-        <v>1.022855260391097</v>
+        <v>0.9259785506069275</v>
       </c>
       <c r="E15">
-        <v>1.029253081671567</v>
+        <v>0.9166885426820347</v>
       </c>
       <c r="F15">
-        <v>1.034247286164951</v>
+        <v>0.8770234741058565</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024308964862676</v>
+        <v>1.007393636230727</v>
       </c>
       <c r="J15">
-        <v>1.027408767544069</v>
+        <v>0.9414013556389904</v>
       </c>
       <c r="K15">
-        <v>1.026455776239605</v>
+        <v>0.9423651799798121</v>
       </c>
       <c r="L15">
-        <v>1.032829481676995</v>
+        <v>0.9332915417993899</v>
       </c>
       <c r="M15">
-        <v>1.037805090559311</v>
+        <v>0.894620449940058</v>
       </c>
       <c r="N15">
-        <v>1.028867805839414</v>
+        <v>0.9427382535442425</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.021725559636049</v>
+        <v>0.9177826334967853</v>
       </c>
       <c r="D16">
-        <v>1.023703580663686</v>
+        <v>0.9346407312597534</v>
       </c>
       <c r="E16">
-        <v>1.030186139057569</v>
+        <v>0.927388399677096</v>
       </c>
       <c r="F16">
-        <v>1.035437524014317</v>
+        <v>0.8933906747004914</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024484854543758</v>
+        <v>1.012722116022616</v>
       </c>
       <c r="J16">
-        <v>1.028141987774226</v>
+        <v>0.9495971562945996</v>
       </c>
       <c r="K16">
-        <v>1.027185498740502</v>
+        <v>0.9502591229501648</v>
       </c>
       <c r="L16">
-        <v>1.033644501100336</v>
+        <v>0.9431643255051906</v>
       </c>
       <c r="M16">
-        <v>1.038877042436684</v>
+        <v>0.9099509807905941</v>
       </c>
       <c r="N16">
-        <v>1.029602067326401</v>
+        <v>0.9509456931768542</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.022324174951516</v>
+        <v>0.9234486805831164</v>
       </c>
       <c r="D17">
-        <v>1.024233247676435</v>
+        <v>0.9395469599823182</v>
       </c>
       <c r="E17">
-        <v>1.030767748665445</v>
+        <v>0.9333942097501853</v>
       </c>
       <c r="F17">
-        <v>1.036177295095913</v>
+        <v>0.9024592899646773</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.024591676234832</v>
+        <v>1.015634211633758</v>
       </c>
       <c r="J17">
-        <v>1.028599057088119</v>
+        <v>0.9542034254871655</v>
       </c>
       <c r="K17">
-        <v>1.027640614857939</v>
+        <v>0.9547050253532198</v>
       </c>
       <c r="L17">
-        <v>1.034151925468072</v>
+        <v>0.9486803749129005</v>
       </c>
       <c r="M17">
-        <v>1.039542517653138</v>
+        <v>0.9184249105735593</v>
       </c>
       <c r="N17">
-        <v>1.030059785731145</v>
+        <v>0.9555585038000199</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.022672342396025</v>
+        <v>0.9265865743061397</v>
       </c>
       <c r="D18">
-        <v>1.024541316488006</v>
+        <v>0.9422619877666145</v>
       </c>
       <c r="E18">
-        <v>1.031105681562994</v>
+        <v>0.9367016882519654</v>
       </c>
       <c r="F18">
-        <v>1.036606350447978</v>
+        <v>0.9074186349665272</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.024652724325991</v>
+        <v>1.017213838712343</v>
       </c>
       <c r="J18">
-        <v>1.028864637349602</v>
+        <v>0.9567417727619614</v>
       </c>
       <c r="K18">
-        <v>1.027905142135981</v>
+        <v>0.9571577848754401</v>
       </c>
       <c r="L18">
-        <v>1.034446535158773</v>
+        <v>0.9517104562922678</v>
       </c>
       <c r="M18">
-        <v>1.039928200943681</v>
+        <v>0.9230527970183946</v>
       </c>
       <c r="N18">
-        <v>1.030325743147061</v>
+        <v>0.9581004558190986</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.022790890853636</v>
+        <v>0.9276314876443683</v>
       </c>
       <c r="D19">
-        <v>1.024646212184933</v>
+        <v>0.9431657925410798</v>
       </c>
       <c r="E19">
-        <v>1.031220686965702</v>
+        <v>0.9378002432689969</v>
       </c>
       <c r="F19">
-        <v>1.036752235313707</v>
+        <v>0.9090604683413237</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.024673327068774</v>
+        <v>1.01773470239994</v>
       </c>
       <c r="J19">
-        <v>1.028955021207597</v>
+        <v>0.9575851025584132</v>
       </c>
       <c r="K19">
-        <v>1.027995181541826</v>
+        <v>0.9579731128706948</v>
       </c>
       <c r="L19">
-        <v>1.03454675955322</v>
+        <v>0.9527156775933165</v>
       </c>
       <c r="M19">
-        <v>1.040059290751804</v>
+        <v>0.9245839109633852</v>
       </c>
       <c r="N19">
-        <v>1.030416255360503</v>
+        <v>0.9589449832405924</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.022260052343485</v>
+        <v>0.922858888420505</v>
       </c>
       <c r="D20">
-        <v>1.024176510357532</v>
+        <v>0.9390364926547802</v>
       </c>
       <c r="E20">
-        <v>1.030705483271037</v>
+        <v>0.9327710936461766</v>
       </c>
       <c r="F20">
-        <v>1.036098177593963</v>
+        <v>0.9015222242301537</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.024580345643575</v>
+        <v>1.015334697909698</v>
       </c>
       <c r="J20">
-        <v>1.028550123663682</v>
+        <v>0.9537253344576155</v>
       </c>
       <c r="K20">
-        <v>1.027591882057043</v>
+        <v>0.9542432747483391</v>
       </c>
       <c r="L20">
-        <v>1.03409762483436</v>
+        <v>0.9481089112235449</v>
       </c>
       <c r="M20">
-        <v>1.039471375148229</v>
+        <v>0.9175499743444421</v>
       </c>
       <c r="N20">
-        <v>1.030010782815633</v>
+        <v>0.9550797338263702</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.02052247149912</v>
+        <v>0.9050162967229646</v>
       </c>
       <c r="D21">
-        <v>1.022639084843775</v>
+        <v>0.9235642142347512</v>
       </c>
       <c r="E21">
-        <v>1.029015013431654</v>
+        <v>0.9136829810510371</v>
       </c>
       <c r="F21">
-        <v>1.0339429319215</v>
+        <v>0.8723751756491429</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024263215745136</v>
+        <v>1.005864120978785</v>
       </c>
       <c r="J21">
-        <v>1.027221695594264</v>
+        <v>0.9391019383854837</v>
       </c>
       <c r="K21">
-        <v>1.026269667132859</v>
+        <v>0.9401543720677138</v>
       </c>
       <c r="L21">
-        <v>1.032621342349305</v>
+        <v>0.930507534433764</v>
       </c>
       <c r="M21">
-        <v>1.03753074249632</v>
+        <v>0.8902580552709497</v>
       </c>
       <c r="N21">
-        <v>1.028680468225983</v>
+        <v>0.9404355708544889</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.019420769627559</v>
+        <v>0.8906003249427467</v>
       </c>
       <c r="D22">
-        <v>1.021664320733623</v>
+        <v>0.91100511014529</v>
       </c>
       <c r="E22">
-        <v>1.027940052341917</v>
+        <v>0.8978664870216972</v>
       </c>
       <c r="F22">
-        <v>1.032565372695479</v>
+        <v>0.8475163245866514</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024052358661788</v>
+        <v>0.9975683205215009</v>
       </c>
       <c r="J22">
-        <v>1.026377041723628</v>
+        <v>0.9270250229147587</v>
       </c>
       <c r="K22">
-        <v>1.025429708213921</v>
+        <v>0.9285728358320776</v>
       </c>
       <c r="L22">
-        <v>1.031680592447062</v>
+        <v>0.9157745101631706</v>
       </c>
       <c r="M22">
-        <v>1.036287814640317</v>
+        <v>0.8668637456012451</v>
       </c>
       <c r="N22">
-        <v>1.027834614849968</v>
+        <v>0.9283415047785536</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.02000568886333</v>
+        <v>0.8987105528568173</v>
       </c>
       <c r="D23">
-        <v>1.022181842781704</v>
+        <v>0.9180786717488522</v>
       </c>
       <c r="E23">
-        <v>1.028511070696013</v>
+        <v>0.9068136544721898</v>
       </c>
       <c r="F23">
-        <v>1.033297797063313</v>
+        <v>0.8616630950999555</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024165230868542</v>
+        <v>1.002313041090157</v>
       </c>
       <c r="J23">
-        <v>1.026825712689849</v>
+        <v>0.9338516376158045</v>
       </c>
       <c r="K23">
-        <v>1.025875814994903</v>
+        <v>0.9351130959103131</v>
       </c>
       <c r="L23">
-        <v>1.032180505558566</v>
+        <v>0.9241261776702748</v>
       </c>
       <c r="M23">
-        <v>1.036948895999379</v>
+        <v>0.8801904836848585</v>
       </c>
       <c r="N23">
-        <v>1.028283922980424</v>
+        <v>0.9351778140554986</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.022289029662023</v>
+        <v>0.9231258952623917</v>
       </c>
       <c r="D24">
-        <v>1.02420215021819</v>
+        <v>0.9392675944289787</v>
       </c>
       <c r="E24">
-        <v>1.030733622368928</v>
+        <v>0.9330532442468794</v>
       </c>
       <c r="F24">
-        <v>1.03613393492542</v>
+        <v>0.901946641547848</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02458546934014</v>
+        <v>1.015470394732808</v>
       </c>
       <c r="J24">
-        <v>1.028572237723803</v>
+        <v>0.9539418118777424</v>
       </c>
       <c r="K24">
-        <v>1.027613905197503</v>
+        <v>0.9544523446219016</v>
       </c>
       <c r="L24">
-        <v>1.034122165161121</v>
+        <v>0.9483676972548383</v>
       </c>
       <c r="M24">
-        <v>1.03950352903489</v>
+        <v>0.9179462714298308</v>
       </c>
       <c r="N24">
-        <v>1.030032928280256</v>
+        <v>0.9552965186692638</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.024899812923783</v>
+        <v>0.9446292325578797</v>
       </c>
       <c r="D25">
-        <v>1.026512302106446</v>
+        <v>0.9578517280674061</v>
       </c>
       <c r="E25">
-        <v>1.033261506263614</v>
+        <v>0.9554855750915772</v>
       </c>
       <c r="F25">
-        <v>1.039329589526382</v>
+        <v>0.9351342501524574</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025023786491368</v>
+        <v>1.025854290888367</v>
       </c>
       <c r="J25">
-        <v>1.030559049762864</v>
+        <v>0.9711753754653708</v>
       </c>
       <c r="K25">
-        <v>1.029594308941602</v>
+        <v>0.9711415905620074</v>
       </c>
       <c r="L25">
-        <v>1.036322034740333</v>
+        <v>0.9688166022322594</v>
       </c>
       <c r="M25">
-        <v>1.042371067472507</v>
+        <v>0.9488305459872248</v>
       </c>
       <c r="N25">
-        <v>1.032022561820302</v>
+        <v>0.972554555893904</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_61/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,989 +412,1145 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>1.05</v>
-      </c>
       <c r="C2">
-        <v>0.9590445794579963</v>
+        <v>0.9797345253690278</v>
       </c>
       <c r="D2">
-        <v>0.9702904462154288</v>
+        <v>0.995971252322536</v>
       </c>
       <c r="E2">
-        <v>0.9702339714809154</v>
+        <v>0.9887454105329037</v>
       </c>
       <c r="F2">
-        <v>0.9563788389123652</v>
+        <v>1.007843219902964</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="I2">
-        <v>1.032221458540408</v>
-      </c>
       <c r="J2">
-        <v>0.9825232888919183</v>
+        <v>1.002538742718469</v>
       </c>
       <c r="K2">
-        <v>0.982179808926731</v>
+        <v>1.007487000819202</v>
       </c>
       <c r="L2">
-        <v>0.9821241835498729</v>
+        <v>1.000363798872005</v>
       </c>
       <c r="M2">
-        <v>0.9684813011404353</v>
+        <v>1.019194357051687</v>
       </c>
       <c r="N2">
-        <v>0.9839185846591412</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.004305951829355</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.023763237641216</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.016363386286796</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1.05</v>
-      </c>
       <c r="C3">
-        <v>0.9684701011435072</v>
+        <v>0.9840139946855079</v>
       </c>
       <c r="D3">
-        <v>0.9784197211754735</v>
+        <v>0.9991242914232309</v>
       </c>
       <c r="E3">
-        <v>0.9797626764609576</v>
+        <v>0.9921535165679756</v>
       </c>
       <c r="F3">
-        <v>0.96986592166126</v>
+        <v>1.01111424230078</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>1.036118053947107</v>
-      </c>
       <c r="J3">
-        <v>0.9898588333895684</v>
+        <v>1.004950148536146</v>
       </c>
       <c r="K3">
-        <v>0.9893363810857709</v>
+        <v>1.009768389380353</v>
       </c>
       <c r="L3">
-        <v>0.9906612181572737</v>
+        <v>1.002887788966018</v>
       </c>
       <c r="M3">
-        <v>0.9808994678369376</v>
+        <v>1.021606862303251</v>
       </c>
       <c r="N3">
-        <v>0.9912645464713766</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.005187059463026</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.025672616835358</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.017973884241272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>1.05</v>
-      </c>
       <c r="C4">
-        <v>0.9741906271266491</v>
+        <v>0.9867303412092974</v>
       </c>
       <c r="D4">
-        <v>0.9833529823305297</v>
+        <v>1.001133010969903</v>
       </c>
       <c r="E4">
-        <v>0.9855028744599009</v>
+        <v>0.9943227803539851</v>
       </c>
       <c r="F4">
-        <v>0.9778986682183282</v>
+        <v>1.013197933411273</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>1.038373992452267</v>
-      </c>
       <c r="J4">
-        <v>0.9942784020773737</v>
+        <v>1.006479686838712</v>
       </c>
       <c r="K4">
-        <v>0.993656563113852</v>
+        <v>1.011217780755331</v>
       </c>
       <c r="L4">
-        <v>0.9957794744431235</v>
+        <v>1.0044902108194</v>
       </c>
       <c r="M4">
-        <v>0.988271364669584</v>
+        <v>1.023139638457944</v>
       </c>
       <c r="N4">
-        <v>0.9956903914536502</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.005744813153247</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.026885730960991</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.018999714742101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>1.05</v>
-      </c>
       <c r="C5">
-        <v>0.9765162222297258</v>
+        <v>0.9878655740291441</v>
       </c>
       <c r="D5">
-        <v>0.9853585102175422</v>
+        <v>1.001977399581054</v>
       </c>
       <c r="E5">
-        <v>0.9878272210030127</v>
+        <v>0.9952313941613237</v>
       </c>
       <c r="F5">
-        <v>0.9811312060814551</v>
+        <v>1.01406866603717</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>1.039266417477308</v>
-      </c>
       <c r="J5">
-        <v>0.9960679928289223</v>
+        <v>1.007120880730405</v>
       </c>
       <c r="K5">
-        <v>0.9954077894309135</v>
+        <v>1.011828014886332</v>
       </c>
       <c r="L5">
-        <v>0.997846463955231</v>
+        <v>1.005161660200908</v>
       </c>
       <c r="M5">
-        <v>0.9912323547815002</v>
+        <v>1.023779790262825</v>
       </c>
       <c r="N5">
-        <v>0.9974825236293354</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.005978757419643</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.027392377818634</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.019438602780859</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>1.05</v>
-      </c>
       <c r="C6">
-        <v>0.9769023279198475</v>
+        <v>0.9880621535884055</v>
       </c>
       <c r="D6">
-        <v>0.9856914785461793</v>
+        <v>1.002127548702862</v>
       </c>
       <c r="E6">
-        <v>0.9882126008350021</v>
+        <v>0.9953895691279037</v>
       </c>
       <c r="F6">
-        <v>0.981666028609202</v>
+        <v>1.014217309063171</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>1.039413162506051</v>
-      </c>
       <c r="J6">
-        <v>0.9963647060415304</v>
+        <v>1.007234628291798</v>
       </c>
       <c r="K6">
-        <v>0.9956982489732703</v>
+        <v>1.011938807821565</v>
       </c>
       <c r="L6">
-        <v>0.9981888577008995</v>
+        <v>1.005280010728451</v>
       </c>
       <c r="M6">
-        <v>0.9917219237841327</v>
+        <v>1.023889745446006</v>
       </c>
       <c r="N6">
-        <v>0.9977796582087388</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.006020745222916</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.027479401589448</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.019525939561832</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>1.05</v>
-      </c>
       <c r="C7">
-        <v>0.9742220005532664</v>
+        <v>0.9867636365919851</v>
       </c>
       <c r="D7">
-        <v>0.9833800378345592</v>
+        <v>1.001168047668796</v>
       </c>
       <c r="E7">
-        <v>0.9855342666505709</v>
+        <v>0.9943514805383767</v>
       </c>
       <c r="F7">
-        <v>0.9779424042408194</v>
+        <v>1.013217412729708</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>1.038386128410228</v>
-      </c>
       <c r="J7">
-        <v>0.9943025721148135</v>
+        <v>1.006505881983607</v>
       </c>
       <c r="K7">
-        <v>0.9936802076765351</v>
+        <v>1.011249399064023</v>
       </c>
       <c r="L7">
-        <v>0.9958074123974792</v>
+        <v>1.004515535130698</v>
       </c>
       <c r="M7">
-        <v>0.9883114488743497</v>
+        <v>1.023155941402602</v>
       </c>
       <c r="N7">
-        <v>0.9957145958153157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.005755753938807</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.026898633898374</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.019042761530456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>1.05</v>
-      </c>
       <c r="C8">
-        <v>0.9623160762690477</v>
+        <v>0.9812151808544081</v>
       </c>
       <c r="D8">
-        <v>0.9731122366749509</v>
+        <v>0.9970735007013255</v>
       </c>
       <c r="E8">
-        <v>0.9735513269795452</v>
+        <v>0.9899260502146269</v>
       </c>
       <c r="F8">
-        <v>0.9610956707827791</v>
+        <v>1.008965685765292</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="I8">
-        <v>1.033598529379869</v>
-      </c>
       <c r="J8">
-        <v>0.9850768932014671</v>
+        <v>1.003382687100427</v>
       </c>
       <c r="K8">
-        <v>0.9846691727752567</v>
+        <v>1.008293259750886</v>
       </c>
       <c r="L8">
-        <v>0.9851018950961707</v>
+        <v>1.001244231113636</v>
       </c>
       <c r="M8">
-        <v>0.9728297526025088</v>
+        <v>1.020025565407851</v>
       </c>
       <c r="N8">
-        <v>0.9864758153797119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.004616395429116</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.024421098759236</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.016957115857488</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>1.05</v>
-      </c>
       <c r="C9">
-        <v>0.937708596435708</v>
+        <v>0.9709833553648358</v>
       </c>
       <c r="D9">
-        <v>0.9518755930751928</v>
+        <v>0.9895667706475829</v>
       </c>
       <c r="E9">
-        <v>0.948325612761883</v>
+        <v>0.9818116778899937</v>
       </c>
       <c r="F9">
-        <v>0.9246581699925419</v>
+        <v>1.001196787053495</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="I9">
-        <v>1.022628132226559</v>
-      </c>
       <c r="J9">
-        <v>0.9656704836224481</v>
+        <v>0.9976040841945837</v>
       </c>
       <c r="K9">
-        <v>0.9658008942417076</v>
+        <v>1.002831418579686</v>
       </c>
       <c r="L9">
-        <v>0.9623166686539827</v>
+        <v>0.9952069058571703</v>
       </c>
       <c r="M9">
-        <v>0.9391045733131046</v>
+        <v>1.014270477019166</v>
       </c>
       <c r="N9">
-        <v>0.9670418464731446</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.002497473272082</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.019866212150005</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.013091701795881</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>1.05</v>
-      </c>
       <c r="C10">
-        <v>0.9171167312045801</v>
+        <v>0.963984138151584</v>
       </c>
       <c r="D10">
-        <v>0.9340637774585474</v>
+        <v>0.9844932105751173</v>
       </c>
       <c r="E10">
-        <v>0.9266796214898699</v>
+        <v>0.9763128881125972</v>
       </c>
       <c r="F10">
-        <v>0.8923149483788426</v>
+        <v>0.9961732552721968</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="I10">
-        <v>1.012374721545232</v>
-      </c>
       <c r="J10">
-        <v>0.949053811795125</v>
+        <v>0.993703344228541</v>
       </c>
       <c r="K10">
-        <v>0.949735129381765</v>
+        <v>0.9991482053201763</v>
       </c>
       <c r="L10">
-        <v>0.9425121499766115</v>
+        <v>0.9911234090690885</v>
       </c>
       <c r="M10">
-        <v>0.9089448288901004</v>
+        <v>1.010611948236381</v>
       </c>
       <c r="N10">
-        <v>0.9504015770658679</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.001068739148736</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.017023452838953</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.010504636710412</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>1.05</v>
-      </c>
       <c r="C11">
-        <v>0.9062885542802912</v>
+        <v>0.9619649627402463</v>
       </c>
       <c r="D11">
-        <v>0.9246696969384161</v>
+        <v>0.983172666780418</v>
       </c>
       <c r="E11">
-        <v>0.9150604873840579</v>
+        <v>0.9748592076451416</v>
       </c>
       <c r="F11">
-        <v>0.8745084309248915</v>
+        <v>0.996695697888571</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="I11">
-        <v>1.006566933531324</v>
-      </c>
       <c r="J11">
-        <v>0.9401556440749956</v>
+        <v>0.9930103511960384</v>
       </c>
       <c r="K11">
-        <v>0.9411672545570013</v>
+        <v>0.9984190554902956</v>
       </c>
       <c r="L11">
-        <v>0.9317840966016132</v>
+        <v>0.9902713440372301</v>
       </c>
       <c r="M11">
-        <v>0.8922605668989344</v>
+        <v>1.011680198701473</v>
       </c>
       <c r="N11">
-        <v>0.9414907729269417</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.000869963676945</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.018315478483629</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.010023044980772</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>1.05</v>
-      </c>
       <c r="C12">
-        <v>0.9017827797445467</v>
+        <v>0.9615868633820913</v>
       </c>
       <c r="D12">
-        <v>0.9207526750124141</v>
+        <v>0.9829921826780919</v>
       </c>
       <c r="E12">
-        <v>0.9101693939255213</v>
+        <v>0.9746594839410138</v>
       </c>
       <c r="F12">
-        <v>0.8669116737748197</v>
+        <v>0.9978091218460163</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="I12">
-        <v>1.004057495724615</v>
-      </c>
       <c r="J12">
-        <v>0.9364155461235252</v>
+        <v>0.9931108527998271</v>
       </c>
       <c r="K12">
-        <v>0.9375737491769084</v>
+        <v>0.9984526442492122</v>
       </c>
       <c r="L12">
-        <v>0.9272467804215369</v>
+        <v>0.9902888219737774</v>
       </c>
       <c r="M12">
-        <v>0.8851257838290524</v>
+        <v>1.012978416337011</v>
       </c>
       <c r="N12">
-        <v>0.937745363607385</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.000955054503946</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.019675345167187</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.010046794885529</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>1.05</v>
-      </c>
       <c r="C13">
-        <v>0.9027771644842787</v>
+        <v>0.9624630716207114</v>
       </c>
       <c r="D13">
-        <v>0.9216175901970747</v>
+        <v>0.9836987829445289</v>
       </c>
       <c r="E13">
-        <v>0.9112518643955155</v>
+        <v>0.9754242882858484</v>
       </c>
       <c r="F13">
-        <v>0.868598317327997</v>
+        <v>0.9994802104963436</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="I13">
-        <v>1.004616234956446</v>
-      </c>
       <c r="J13">
-        <v>0.9372429730389081</v>
+        <v>0.9938468374268541</v>
       </c>
       <c r="K13">
-        <v>0.9383683372926629</v>
+        <v>0.9990999879591786</v>
       </c>
       <c r="L13">
-        <v>0.9282520743605674</v>
+        <v>0.9909922924369764</v>
       </c>
       <c r="M13">
-        <v>0.8867107290915827</v>
+        <v>1.014573308223274</v>
       </c>
       <c r="N13">
-        <v>0.9385739655638953</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.001272628016388</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.021217734621104</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.01050194018759</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>1.05</v>
-      </c>
       <c r="C14">
-        <v>0.9059279857093694</v>
+        <v>0.9636348809748624</v>
       </c>
       <c r="D14">
-        <v>0.924356434728925</v>
+        <v>0.9845895026028417</v>
       </c>
       <c r="E14">
-        <v>0.9146703680439959</v>
+        <v>0.9763884897223374</v>
       </c>
       <c r="F14">
-        <v>0.8739047705903539</v>
+        <v>1.000874502389607</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="I14">
-        <v>1.006368203248429</v>
-      </c>
       <c r="J14">
-        <v>0.9398571993230239</v>
+        <v>0.9946407904808688</v>
       </c>
       <c r="K14">
-        <v>0.9408803347062235</v>
+        <v>0.9998253690376299</v>
       </c>
       <c r="L14">
-        <v>0.9314226685158166</v>
+        <v>0.9917874318211526</v>
       </c>
       <c r="M14">
-        <v>0.8916939842783173</v>
+        <v>1.015796892936674</v>
       </c>
       <c r="N14">
-        <v>0.9411919043491902</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.001597393830659</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.022360680040759</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.01101631466349</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>1.05</v>
-      </c>
       <c r="C15">
-        <v>0.9077954533926934</v>
+        <v>0.9642083887409802</v>
       </c>
       <c r="D15">
-        <v>0.9259785506069275</v>
+        <v>0.9850154928753263</v>
       </c>
       <c r="E15">
-        <v>0.9166885426820347</v>
+        <v>0.9768472238886733</v>
       </c>
       <c r="F15">
-        <v>0.8770234741058565</v>
+        <v>1.001387353476364</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="I15">
-        <v>1.007393636230727</v>
-      </c>
       <c r="J15">
-        <v>0.9414013556389904</v>
+        <v>0.9949892197063201</v>
       </c>
       <c r="K15">
-        <v>0.9423651799798121</v>
+        <v>1.000152103652585</v>
       </c>
       <c r="L15">
-        <v>0.9332915417993899</v>
+        <v>0.9921449465192821</v>
       </c>
       <c r="M15">
-        <v>0.894620449940058</v>
+        <v>1.016211371290401</v>
       </c>
       <c r="N15">
-        <v>0.9427382535442425</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.001733108403453</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.022726277210799</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.011253408840642</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>1.05</v>
-      </c>
       <c r="C16">
-        <v>0.9177826334967853</v>
+        <v>0.9669787880126366</v>
       </c>
       <c r="D16">
-        <v>0.9346407312597534</v>
+        <v>0.9870057369057011</v>
       </c>
       <c r="E16">
-        <v>0.927388399677096</v>
+        <v>0.9790003097518625</v>
       </c>
       <c r="F16">
-        <v>0.8933906747004914</v>
+        <v>1.003226207098255</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="I16">
-        <v>1.012722116022616</v>
-      </c>
       <c r="J16">
-        <v>0.9495971562945996</v>
+        <v>0.9964854829271801</v>
       </c>
       <c r="K16">
-        <v>0.9502591229501648</v>
+        <v>1.001576257468046</v>
       </c>
       <c r="L16">
-        <v>0.9431643255051906</v>
+        <v>0.9937215341607731</v>
       </c>
       <c r="M16">
-        <v>0.9099509807905941</v>
+        <v>1.017500947419641</v>
       </c>
       <c r="N16">
-        <v>0.9509456931768542</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.002271935551063</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.023706342984382</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.012263666807246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>1.05</v>
-      </c>
       <c r="C17">
-        <v>0.9234486805831164</v>
+        <v>0.9685014901195157</v>
       </c>
       <c r="D17">
-        <v>0.9395469599823182</v>
+        <v>0.9880769644658839</v>
       </c>
       <c r="E17">
-        <v>0.9333942097501853</v>
+        <v>0.9801581802010511</v>
       </c>
       <c r="F17">
-        <v>0.9024592899646773</v>
+        <v>1.00391387423592</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="I17">
-        <v>1.015634211633758</v>
-      </c>
       <c r="J17">
-        <v>0.9542034254871655</v>
+        <v>0.9972263408444626</v>
       </c>
       <c r="K17">
-        <v>0.9547050253532198</v>
+        <v>1.002297327999434</v>
       </c>
       <c r="L17">
-        <v>0.9486803749129005</v>
+        <v>0.9945232886270322</v>
       </c>
       <c r="M17">
-        <v>0.9184249105735593</v>
+        <v>1.017853625314488</v>
       </c>
       <c r="N17">
-        <v>0.9555585038000199</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.002517977797085</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.023854350634807</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.012776191930041</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>1.05</v>
-      </c>
       <c r="C18">
-        <v>0.9265865743061397</v>
+        <v>0.9690448071223309</v>
       </c>
       <c r="D18">
-        <v>0.9422619877666145</v>
+        <v>0.9884064748720768</v>
       </c>
       <c r="E18">
-        <v>0.9367016882519654</v>
+        <v>0.980520807115966</v>
       </c>
       <c r="F18">
-        <v>0.9074186349665272</v>
+        <v>1.003497076651246</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
-      <c r="I18">
-        <v>1.017213838712343</v>
-      </c>
       <c r="J18">
-        <v>0.9567417727619614</v>
+        <v>0.9973305207566143</v>
       </c>
       <c r="K18">
-        <v>0.9571577848754401</v>
+        <v>1.002428374134935</v>
       </c>
       <c r="L18">
-        <v>0.9517104562922678</v>
+        <v>0.9946844670123463</v>
       </c>
       <c r="M18">
-        <v>0.9230527970183946</v>
+        <v>1.017255717797309</v>
       </c>
       <c r="N18">
-        <v>0.9581004558190986</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.002514743440215</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.023140296488016</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.012856837883414</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>1.05</v>
-      </c>
       <c r="C19">
-        <v>0.9276314876443683</v>
+        <v>0.9687067724711723</v>
       </c>
       <c r="D19">
-        <v>0.9431657925410798</v>
+        <v>0.9880832810765763</v>
       </c>
       <c r="E19">
-        <v>0.9378002432689969</v>
+        <v>0.9801711380845187</v>
       </c>
       <c r="F19">
-        <v>0.9090604683413237</v>
+        <v>1.001983887091836</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="I19">
-        <v>1.01773470239994</v>
-      </c>
       <c r="J19">
-        <v>0.9575851025584132</v>
+        <v>0.9968645603474664</v>
       </c>
       <c r="K19">
-        <v>0.9579731128706948</v>
+        <v>1.002045265477592</v>
       </c>
       <c r="L19">
-        <v>0.9527156775933165</v>
+        <v>0.9942747174570298</v>
       </c>
       <c r="M19">
-        <v>0.9245839109633852</v>
+        <v>1.015704103622836</v>
       </c>
       <c r="N19">
-        <v>0.9589449832405924</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.002297218551176</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.021581793428585</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.012592555821651</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>1.05</v>
-      </c>
       <c r="C20">
-        <v>0.922858888420505</v>
+        <v>0.9658549433933287</v>
       </c>
       <c r="D20">
-        <v>0.9390364926547802</v>
+        <v>0.9858732934321676</v>
       </c>
       <c r="E20">
-        <v>0.9327710936461766</v>
+        <v>0.9777870212400014</v>
       </c>
       <c r="F20">
-        <v>0.9015222242301537</v>
+        <v>0.9975093394073397</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
-      <c r="I20">
-        <v>1.015334697909698</v>
-      </c>
       <c r="J20">
-        <v>0.9537253344576155</v>
+        <v>0.9947686547486506</v>
       </c>
       <c r="K20">
-        <v>0.9542432747483391</v>
+        <v>1.00016917703168</v>
       </c>
       <c r="L20">
-        <v>0.9481089112235449</v>
+        <v>0.9922320378586234</v>
       </c>
       <c r="M20">
-        <v>0.9175499743444421</v>
+        <v>1.011596125917946</v>
       </c>
       <c r="N20">
-        <v>0.9550797338263702</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.001463893658632</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.017791518064686</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.011270069600958</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>1.05</v>
-      </c>
       <c r="C21">
-        <v>0.9050162967229646</v>
+        <v>0.9603777495875</v>
       </c>
       <c r="D21">
-        <v>0.9235642142347512</v>
+        <v>0.981889797644377</v>
       </c>
       <c r="E21">
-        <v>0.9136829810510371</v>
+        <v>0.9734742107913208</v>
       </c>
       <c r="F21">
-        <v>0.8723751756491429</v>
+        <v>0.9932087248830035</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
-      <c r="I21">
-        <v>1.005864120978785</v>
-      </c>
       <c r="J21">
-        <v>0.9391019383854837</v>
+        <v>0.9916308279589685</v>
       </c>
       <c r="K21">
-        <v>0.9401543720677138</v>
+        <v>0.997222592704661</v>
       </c>
       <c r="L21">
-        <v>0.930507534433764</v>
+        <v>0.9889761726853944</v>
       </c>
       <c r="M21">
-        <v>0.8902580552709497</v>
+        <v>1.00831991252425</v>
       </c>
       <c r="N21">
-        <v>0.9404355708544889</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.000303242459984</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.015156582563147</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.009189942734845</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>1.05</v>
-      </c>
       <c r="C22">
-        <v>0.8906003249427467</v>
+        <v>0.9569010144261657</v>
       </c>
       <c r="D22">
-        <v>0.91100511014529</v>
+        <v>0.9793683707363444</v>
       </c>
       <c r="E22">
-        <v>0.8978664870216972</v>
+        <v>0.9707500615264053</v>
       </c>
       <c r="F22">
-        <v>0.8475163245866514</v>
+        <v>0.9906204866070579</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
-      <c r="I22">
-        <v>0.9975683205215009</v>
-      </c>
       <c r="J22">
-        <v>0.9270250229147587</v>
+        <v>0.9896567486392268</v>
       </c>
       <c r="K22">
-        <v>0.9285728358320776</v>
+        <v>0.9953599314540869</v>
       </c>
       <c r="L22">
-        <v>0.9157745101631706</v>
+        <v>0.9869241211894298</v>
       </c>
       <c r="M22">
-        <v>0.8668637456012451</v>
+        <v>1.006380071900643</v>
       </c>
       <c r="N22">
-        <v>0.9283415047785536</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9995731954817213</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.013621270392276</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.007858887563964</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>1.05</v>
-      </c>
       <c r="C23">
-        <v>0.8987105528568173</v>
+        <v>0.95873248685307</v>
       </c>
       <c r="D23">
-        <v>0.9180786717488522</v>
+        <v>0.9806860164768868</v>
       </c>
       <c r="E23">
-        <v>0.9068136544721898</v>
+        <v>0.9721816816602894</v>
       </c>
       <c r="F23">
-        <v>0.8616630950999555</v>
+        <v>0.9919887829841089</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
-      <c r="I23">
-        <v>1.002313041090157</v>
-      </c>
       <c r="J23">
-        <v>0.9338516376158045</v>
+        <v>0.9906892442360584</v>
       </c>
       <c r="K23">
-        <v>0.9351130959103131</v>
+        <v>0.9963281083612677</v>
       </c>
       <c r="L23">
-        <v>0.9241261776702748</v>
+        <v>0.9879989989494928</v>
       </c>
       <c r="M23">
-        <v>0.8801904836848585</v>
+        <v>1.007404097087658</v>
       </c>
       <c r="N23">
-        <v>0.9351778140554986</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.9999534706321545</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.014431748935974</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.008533491657999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>1.05</v>
-      </c>
       <c r="C24">
-        <v>0.9231258952623917</v>
+        <v>0.9658117407381459</v>
       </c>
       <c r="D24">
-        <v>0.9392675944289787</v>
+        <v>0.9858152209375911</v>
       </c>
       <c r="E24">
-        <v>0.9330532442468794</v>
+        <v>0.9777379589110211</v>
       </c>
       <c r="F24">
-        <v>0.901946641547848</v>
+        <v>0.9972906229636873</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
-      <c r="I24">
-        <v>1.015470394732808</v>
-      </c>
       <c r="J24">
-        <v>0.9539418118777424</v>
+        <v>0.9946924641677415</v>
       </c>
       <c r="K24">
-        <v>0.9544523446219016</v>
+        <v>1.000096102083898</v>
       </c>
       <c r="L24">
-        <v>0.9483676972548383</v>
+        <v>0.9921676349094882</v>
       </c>
       <c r="M24">
-        <v>0.9179462714298308</v>
+        <v>1.011365485949249</v>
       </c>
       <c r="N24">
-        <v>0.9552965186692638</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.001428934384279</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.0175670341476</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.011190058076927</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>1.05</v>
-      </c>
       <c r="C25">
-        <v>0.9446292325578797</v>
+        <v>0.9737127111603919</v>
       </c>
       <c r="D25">
-        <v>0.9578517280674061</v>
+        <v>0.991578159718875</v>
       </c>
       <c r="E25">
-        <v>0.9554855750915772</v>
+        <v>0.9839737772988856</v>
       </c>
       <c r="F25">
-        <v>0.9351342501524574</v>
+        <v>1.003251627142461</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
-      <c r="I25">
-        <v>1.025854290888367</v>
-      </c>
       <c r="J25">
-        <v>0.9711753754653708</v>
+        <v>0.9991583300367871</v>
       </c>
       <c r="K25">
-        <v>0.9711415905620074</v>
+        <v>1.004308636104978</v>
       </c>
       <c r="L25">
-        <v>0.9688166022322594</v>
+        <v>0.9968260810154819</v>
       </c>
       <c r="M25">
-        <v>0.9488305459872248</v>
+        <v>1.015799674631198</v>
       </c>
       <c r="N25">
-        <v>0.972554555893904</v>
+        <v>1.00307082798304</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.021076504428747</v>
+      </c>
+      <c r="Q25">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R25">
+        <v>1.0141657664667</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_61/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,1133 +424,1355 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9797345253690278</v>
+        <v>0.9823884839730167</v>
       </c>
       <c r="D2">
-        <v>0.995971252322536</v>
+        <v>0.9991875377650978</v>
       </c>
       <c r="E2">
-        <v>0.9887454105329037</v>
+        <v>0.991078553161062</v>
       </c>
       <c r="F2">
-        <v>1.007843219902964</v>
+        <v>1.008992912163677</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="J2">
-        <v>1.002538742718469</v>
+        <v>1.005109022387188</v>
       </c>
       <c r="K2">
-        <v>1.007487000819202</v>
+        <v>1.010658203093633</v>
       </c>
       <c r="L2">
-        <v>1.000363798872005</v>
+        <v>1.002663593256306</v>
       </c>
       <c r="M2">
-        <v>1.019194357051687</v>
+        <v>1.020328367183243</v>
       </c>
       <c r="N2">
-        <v>1.004305951829355</v>
+        <v>1.008250800329242</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.023763237641216</v>
+        <v>1.024660751526645</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.016363386286796</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.018614865779752</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.014743103628774</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9840139946855079</v>
+        <v>0.9863754875060881</v>
       </c>
       <c r="D3">
-        <v>0.9991242914232309</v>
+        <v>1.001970393960595</v>
       </c>
       <c r="E3">
-        <v>0.9921535165679756</v>
+        <v>0.9942298025493606</v>
       </c>
       <c r="F3">
-        <v>1.01111424230078</v>
+        <v>1.012135896326292</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="J3">
-        <v>1.004950148536146</v>
+        <v>1.007244589450021</v>
       </c>
       <c r="K3">
-        <v>1.009768389380353</v>
+        <v>1.012578125158019</v>
       </c>
       <c r="L3">
-        <v>1.002887788966018</v>
+        <v>1.004937050449179</v>
       </c>
       <c r="M3">
-        <v>1.021606862303251</v>
+        <v>1.022615815715006</v>
       </c>
       <c r="N3">
-        <v>1.005187059463026</v>
+        <v>1.008868491203646</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.025672616835358</v>
+        <v>1.026471152226816</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.017973884241272</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.019969470227112</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.015192047313977</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9867303412092974</v>
+        <v>0.9889092352509459</v>
       </c>
       <c r="D4">
-        <v>1.001133010969903</v>
+        <v>1.003745863608348</v>
       </c>
       <c r="E4">
-        <v>0.9943227803539851</v>
+        <v>0.996238476874703</v>
       </c>
       <c r="F4">
-        <v>1.013197933411273</v>
+        <v>1.014139797726918</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="J4">
-        <v>1.006479686838712</v>
+        <v>1.008600962658567</v>
       </c>
       <c r="K4">
-        <v>1.011217780755331</v>
+        <v>1.01379928861945</v>
       </c>
       <c r="L4">
-        <v>1.0044902108194</v>
+        <v>1.006382513178049</v>
       </c>
       <c r="M4">
-        <v>1.023139638457944</v>
+        <v>1.024070511404725</v>
       </c>
       <c r="N4">
-        <v>1.005744813153247</v>
+        <v>1.009260143717012</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.026885730960991</v>
+        <v>1.027622468357869</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.018999714742101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.020833985268536</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.015474771416677</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9878655740291441</v>
+        <v>0.9899685996985016</v>
       </c>
       <c r="D5">
-        <v>1.001977399581054</v>
+        <v>1.004492948738942</v>
       </c>
       <c r="E5">
-        <v>0.9952313941613237</v>
+        <v>0.9970803068915837</v>
       </c>
       <c r="F5">
-        <v>1.01406866603717</v>
+        <v>1.01497741589607</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="J5">
-        <v>1.007120880730405</v>
+        <v>1.009169980977912</v>
       </c>
       <c r="K5">
-        <v>1.011828014886332</v>
+        <v>1.014314201356306</v>
       </c>
       <c r="L5">
-        <v>1.005161660200908</v>
+        <v>1.006988609808095</v>
       </c>
       <c r="M5">
-        <v>1.023779790262825</v>
+        <v>1.024678221892009</v>
       </c>
       <c r="N5">
-        <v>1.005978757419643</v>
+        <v>1.009424594201629</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.027392377818634</v>
+        <v>1.028103439093317</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.019438602780859</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.021206167983644</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.015593992568081</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9880621535884055</v>
+        <v>0.9901517731033836</v>
       </c>
       <c r="D6">
-        <v>1.002127548702862</v>
+        <v>1.004626005932379</v>
       </c>
       <c r="E6">
-        <v>0.9953895691279037</v>
+        <v>0.9972266594215526</v>
       </c>
       <c r="F6">
-        <v>1.014217309063171</v>
+        <v>1.015120212805678</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="J6">
-        <v>1.007234628291798</v>
+        <v>1.009270946241629</v>
       </c>
       <c r="K6">
-        <v>1.011938807821565</v>
+        <v>1.014408237654108</v>
       </c>
       <c r="L6">
-        <v>1.005280010728451</v>
+        <v>1.007095380774777</v>
       </c>
       <c r="M6">
-        <v>1.023889745446006</v>
+        <v>1.024782444985378</v>
       </c>
       <c r="N6">
-        <v>1.006020745222916</v>
+        <v>1.009454146065132</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.027479401589448</v>
+        <v>1.028185926130157</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.019525939561832</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.021282514200762</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.015616571347089</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9867636365919851</v>
+        <v>0.9889481209339792</v>
       </c>
       <c r="D7">
-        <v>1.001168047668796</v>
+        <v>1.003784352325835</v>
       </c>
       <c r="E7">
-        <v>0.9943514805383767</v>
+        <v>0.9962723982483143</v>
       </c>
       <c r="F7">
-        <v>1.013217412729708</v>
+        <v>1.014161689067728</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="J7">
-        <v>1.006505881983607</v>
+        <v>1.008632627230228</v>
       </c>
       <c r="K7">
-        <v>1.011249399064023</v>
+        <v>1.013834330934026</v>
       </c>
       <c r="L7">
-        <v>1.004515535130698</v>
+        <v>1.006413004648869</v>
       </c>
       <c r="M7">
-        <v>1.023155941402602</v>
+        <v>1.02408920247051</v>
       </c>
       <c r="N7">
-        <v>1.005755753938807</v>
+        <v>1.009296613050291</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.026898633898374</v>
+        <v>1.027637261353697</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.019042761530456</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.020881428703923</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.015485967710952</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9812151808544081</v>
+        <v>0.9837929680055009</v>
       </c>
       <c r="D8">
-        <v>0.9970735007013255</v>
+        <v>1.000182182362886</v>
       </c>
       <c r="E8">
-        <v>0.9899260502146269</v>
+        <v>0.9921935144155332</v>
       </c>
       <c r="F8">
-        <v>1.008965685765292</v>
+        <v>1.010081883189054</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="J8">
-        <v>1.003382687100427</v>
+        <v>1.005881980152066</v>
       </c>
       <c r="K8">
-        <v>1.008293259750886</v>
+        <v>1.011359686437837</v>
       </c>
       <c r="L8">
-        <v>1.001244231113636</v>
+        <v>1.003480278264693</v>
       </c>
       <c r="M8">
-        <v>1.020025565407851</v>
+        <v>1.021126999028594</v>
       </c>
       <c r="N8">
-        <v>1.004616395429116</v>
+        <v>1.008555907029285</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.024421098759236</v>
+        <v>1.025292829092929</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.016957115857488</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.01913673479347</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.0149131459857</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9709833553648358</v>
+        <v>0.9742847621136247</v>
       </c>
       <c r="D9">
-        <v>0.9895667706475829</v>
+        <v>0.9935757469497289</v>
       </c>
       <c r="E9">
-        <v>0.9818116778899937</v>
+        <v>0.9847132908334524</v>
       </c>
       <c r="F9">
-        <v>1.001196787053495</v>
+        <v>1.002630730415504</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="J9">
-        <v>0.9976040841945837</v>
+        <v>1.000779455405817</v>
       </c>
       <c r="K9">
-        <v>1.002831418579686</v>
+        <v>1.006773920247769</v>
       </c>
       <c r="L9">
-        <v>0.9952069058571703</v>
+        <v>0.9980593508632116</v>
       </c>
       <c r="M9">
-        <v>1.014270477019166</v>
+        <v>1.015681269563237</v>
       </c>
       <c r="N9">
-        <v>1.002497473272082</v>
+        <v>1.007085392106338</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.019866212150005</v>
+        <v>1.020982792132209</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.013091701795881</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.015890575990206</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.013823103574618</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.963984138151584</v>
+        <v>0.9678333182620711</v>
       </c>
       <c r="D10">
-        <v>0.9844932105751173</v>
+        <v>0.9891547447588435</v>
       </c>
       <c r="E10">
-        <v>0.9763128881125972</v>
+        <v>0.9796940091670323</v>
       </c>
       <c r="F10">
-        <v>0.9961732552721968</v>
+        <v>0.997846810936641</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="J10">
-        <v>0.993703344228541</v>
+        <v>0.9973839640893863</v>
       </c>
       <c r="K10">
-        <v>0.9991482053201763</v>
+        <v>1.003722614008528</v>
       </c>
       <c r="L10">
-        <v>0.9911234090690885</v>
+        <v>0.9944398355447304</v>
       </c>
       <c r="M10">
-        <v>1.010611948236381</v>
+        <v>1.012255051009548</v>
       </c>
       <c r="N10">
-        <v>1.001068739148736</v>
+        <v>1.006222041845418</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.017023452838953</v>
+        <v>1.018323816155946</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.010504636710412</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.013752020234639</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.01309523983599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9619649627402463</v>
+        <v>0.965986016203483</v>
       </c>
       <c r="D11">
-        <v>0.983172666780418</v>
+        <v>0.9880215204034084</v>
       </c>
       <c r="E11">
-        <v>0.9748592076451416</v>
+        <v>0.9783895740043378</v>
       </c>
       <c r="F11">
-        <v>0.996695697888571</v>
+        <v>0.998429933960693</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="J11">
-        <v>0.9930103511960384</v>
+        <v>0.9968456227312775</v>
       </c>
       <c r="K11">
-        <v>0.9984190554902956</v>
+        <v>1.003172924843485</v>
       </c>
       <c r="L11">
-        <v>0.9902713440372301</v>
+        <v>0.9937308719847646</v>
       </c>
       <c r="M11">
-        <v>1.011680198701473</v>
+        <v>1.013381520292189</v>
       </c>
       <c r="N11">
-        <v>1.000869963676945</v>
+        <v>1.006339524669074</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.018315478483629</v>
+        <v>1.01966120555299</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.010023044980772</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.013400471802577</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.013027996270545</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9615868633820913</v>
+        <v>0.9656252241682785</v>
       </c>
       <c r="D12">
-        <v>0.9829921826780919</v>
+        <v>0.9878581410210195</v>
       </c>
       <c r="E12">
-        <v>0.9746594839410138</v>
+        <v>0.9782025734663324</v>
       </c>
       <c r="F12">
-        <v>0.9978091218460163</v>
+        <v>0.9995405523467402</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="J12">
-        <v>0.9931108527998271</v>
+        <v>0.9969591582562759</v>
       </c>
       <c r="K12">
-        <v>0.9984526442492122</v>
+        <v>1.003221716405665</v>
       </c>
       <c r="L12">
-        <v>0.9902888219737774</v>
+        <v>0.9937596414397907</v>
       </c>
       <c r="M12">
-        <v>1.012978416337011</v>
+        <v>1.014676559945113</v>
       </c>
       <c r="N12">
-        <v>1.000955054503946</v>
+        <v>1.006510477478049</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.019675345167187</v>
+        <v>1.021018085554143</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.010046794885529</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.013434970201582</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.013086991124537</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9624630716207114</v>
+        <v>0.9663864872710942</v>
       </c>
       <c r="D13">
-        <v>0.9836987829445289</v>
+        <v>0.9884396385770614</v>
       </c>
       <c r="E13">
-        <v>0.9754242882858484</v>
+        <v>0.9788625826403542</v>
       </c>
       <c r="F13">
-        <v>0.9994802104963436</v>
+        <v>1.001154466115654</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="J13">
-        <v>0.9938468374268541</v>
+        <v>0.9975867384887732</v>
       </c>
       <c r="K13">
-        <v>0.9990999879591786</v>
+        <v>1.003746928460558</v>
       </c>
       <c r="L13">
-        <v>0.9909922924369764</v>
+        <v>0.9943608259434511</v>
       </c>
       <c r="M13">
-        <v>1.014573308223274</v>
+        <v>1.016215622055093</v>
       </c>
       <c r="N13">
-        <v>1.001272628016388</v>
+        <v>1.006702105431149</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.021217734621104</v>
+        <v>1.022515993659973</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.01050194018759</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.013803510106525</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.013252330554333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9636348809748624</v>
+        <v>0.9674201950534564</v>
       </c>
       <c r="D14">
-        <v>0.9845895026028417</v>
+        <v>0.9891806550840958</v>
       </c>
       <c r="E14">
-        <v>0.9763884897223374</v>
+        <v>0.9797023250728656</v>
       </c>
       <c r="F14">
-        <v>1.000874502389607</v>
+        <v>1.002485547321335</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="J14">
-        <v>0.9946407904808688</v>
+        <v>0.9982517696300135</v>
       </c>
       <c r="K14">
-        <v>0.9998253690376299</v>
+        <v>1.004326774997341</v>
       </c>
       <c r="L14">
-        <v>0.9917874318211526</v>
+        <v>0.9950349399517948</v>
       </c>
       <c r="M14">
-        <v>1.015796892936674</v>
+        <v>1.017377649140892</v>
       </c>
       <c r="N14">
-        <v>1.001597393830659</v>
+        <v>1.006845131852536</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.022360680040759</v>
+        <v>1.023610105435823</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.01101631466349</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.014215103016352</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.013415713107018</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9642083887409802</v>
+        <v>0.9679311341951069</v>
       </c>
       <c r="D15">
-        <v>0.9850154928753263</v>
+        <v>0.9895383798229406</v>
       </c>
       <c r="E15">
-        <v>0.9768472238886733</v>
+        <v>0.9801051762786898</v>
       </c>
       <c r="F15">
-        <v>1.001387353476364</v>
+        <v>1.002970914879049</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="J15">
-        <v>0.9949892197063201</v>
+        <v>0.998542078999744</v>
       </c>
       <c r="K15">
-        <v>1.000152103652585</v>
+        <v>1.004587279234295</v>
       </c>
       <c r="L15">
-        <v>0.9921449465192821</v>
+        <v>0.9953382157779177</v>
       </c>
       <c r="M15">
-        <v>1.016211371290401</v>
+        <v>1.017765403381769</v>
       </c>
       <c r="N15">
-        <v>1.001733108403453</v>
+        <v>1.00689206847588</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.022726277210799</v>
+        <v>1.023954547237732</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.011253408840642</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.014405920549029</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.013483438432821</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9669787880126366</v>
+        <v>0.9704360768743933</v>
       </c>
       <c r="D16">
-        <v>0.9870057369057011</v>
+        <v>0.9912322364750947</v>
       </c>
       <c r="E16">
-        <v>0.9790003097518625</v>
+        <v>0.9820243138565499</v>
       </c>
       <c r="F16">
-        <v>1.003226207098255</v>
+        <v>1.004697465984967</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="J16">
-        <v>0.9964854829271801</v>
+        <v>0.999793104720846</v>
       </c>
       <c r="K16">
-        <v>1.001576257468046</v>
+        <v>1.005724471646208</v>
       </c>
       <c r="L16">
-        <v>0.9937215341607731</v>
+        <v>0.9966882334164282</v>
       </c>
       <c r="M16">
-        <v>1.017500947419641</v>
+        <v>1.018945991017378</v>
       </c>
       <c r="N16">
-        <v>1.002271935551063</v>
+        <v>1.007036476934266</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.023706342984382</v>
+        <v>1.024848504468799</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.012263666807246</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.015213554514162</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.013744351038287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9685014901195157</v>
+        <v>0.9718361879677149</v>
       </c>
       <c r="D17">
-        <v>0.9880769644658839</v>
+        <v>0.9921610043459074</v>
       </c>
       <c r="E17">
-        <v>0.9801581802010511</v>
+        <v>0.9830758243623902</v>
       </c>
       <c r="F17">
-        <v>1.00391387423592</v>
+        <v>1.005335363426308</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="J17">
-        <v>0.9972263408444626</v>
+        <v>1.000421402755853</v>
       </c>
       <c r="K17">
-        <v>1.002297327999434</v>
+        <v>1.006307889925972</v>
       </c>
       <c r="L17">
-        <v>0.9945232886270322</v>
+        <v>0.9973872487890343</v>
       </c>
       <c r="M17">
-        <v>1.017853625314488</v>
+        <v>1.019250486660431</v>
       </c>
       <c r="N17">
-        <v>1.002517977797085</v>
+        <v>1.007104552062658</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.023854350634807</v>
+        <v>1.024958541121585</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.012776191930041</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.015628985444034</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.013862824471073</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9690448071223309</v>
+        <v>0.9723597176911787</v>
       </c>
       <c r="D18">
-        <v>0.9884064748720768</v>
+        <v>0.9924627751714789</v>
       </c>
       <c r="E18">
-        <v>0.980520807115966</v>
+        <v>0.98342374165896</v>
       </c>
       <c r="F18">
-        <v>1.003497076651246</v>
+        <v>1.004915076544075</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="J18">
-        <v>0.9973305207566143</v>
+        <v>1.000509203392736</v>
       </c>
       <c r="K18">
-        <v>1.002428374134935</v>
+        <v>1.006412891732392</v>
       </c>
       <c r="L18">
-        <v>0.9946844670123463</v>
+        <v>0.9975348718150702</v>
       </c>
       <c r="M18">
-        <v>1.017255717797309</v>
+        <v>1.018649505293115</v>
       </c>
       <c r="N18">
-        <v>1.002514743440215</v>
+        <v>1.00705895242491</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.023140296488016</v>
+        <v>1.024242292996723</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.012856837883414</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.015690102121021</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.013852711376701</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9687067724711723</v>
+        <v>0.9720837963991662</v>
       </c>
       <c r="D19">
-        <v>0.9880832810765763</v>
+        <v>0.9922071225788706</v>
       </c>
       <c r="E19">
-        <v>0.9801711380845187</v>
+        <v>0.9831318171455078</v>
       </c>
       <c r="F19">
-        <v>1.001983887091836</v>
+        <v>1.00343633618031</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="J19">
-        <v>0.9968645603474664</v>
+        <v>1.000103498086304</v>
       </c>
       <c r="K19">
-        <v>1.002045265477592</v>
+        <v>1.006096466956377</v>
       </c>
       <c r="L19">
-        <v>0.9942747174570298</v>
+        <v>0.997182065806549</v>
       </c>
       <c r="M19">
-        <v>1.015704103622836</v>
+        <v>1.017131789936532</v>
       </c>
       <c r="N19">
-        <v>1.002297218551176</v>
+        <v>1.006896512725096</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.021581793428585</v>
+        <v>1.02271097401508</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.012592555821651</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.015473588484968</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.013734776286109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9658549433933287</v>
+        <v>0.9695283061599652</v>
       </c>
       <c r="D20">
-        <v>0.9858732934321676</v>
+        <v>0.9903364072072669</v>
       </c>
       <c r="E20">
-        <v>0.9777870212400014</v>
+        <v>0.9810127853150957</v>
       </c>
       <c r="F20">
-        <v>0.9975093394073397</v>
+        <v>0.9991059722584545</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="J20">
-        <v>0.9947686547486506</v>
+        <v>0.9982865889229141</v>
       </c>
       <c r="K20">
-        <v>1.00016917703168</v>
+        <v>1.004551334577834</v>
       </c>
       <c r="L20">
-        <v>0.9922320378586234</v>
+        <v>0.9953979257682519</v>
       </c>
       <c r="M20">
-        <v>1.011596125917946</v>
+        <v>1.013164560303814</v>
       </c>
       <c r="N20">
-        <v>1.001463893658632</v>
+        <v>1.006386342981156</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.017791518064686</v>
+        <v>1.019032803662404</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.011270069600958</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.014385517110754</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.013298151224963</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9603777495875</v>
+        <v>0.9646185491926756</v>
       </c>
       <c r="D21">
-        <v>0.981889797644377</v>
+        <v>0.9869780002508353</v>
       </c>
       <c r="E21">
-        <v>0.9734742107913208</v>
+        <v>0.9772040521560127</v>
       </c>
       <c r="F21">
-        <v>0.9932087248830035</v>
+        <v>0.9950564093078901</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="J21">
-        <v>0.9916308279589685</v>
+        <v>0.9956738310810113</v>
       </c>
       <c r="K21">
-        <v>0.997222592704661</v>
+        <v>1.002210350667594</v>
       </c>
       <c r="L21">
-        <v>0.9889761726853944</v>
+        <v>0.9926305650020578</v>
       </c>
       <c r="M21">
-        <v>1.00831991252425</v>
+        <v>1.010132048727136</v>
       </c>
       <c r="N21">
-        <v>1.000303242459984</v>
+        <v>1.006050145846391</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.015156582563147</v>
+        <v>1.016590818158637</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.009189942734845</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.01273394797285</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.012736261151289</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9569010144261657</v>
+        <v>0.9615055454080773</v>
       </c>
       <c r="D22">
-        <v>0.9793683707363444</v>
+        <v>0.9848549328920447</v>
       </c>
       <c r="E22">
-        <v>0.9707500615264053</v>
+        <v>0.9748030284726822</v>
       </c>
       <c r="F22">
-        <v>0.9906204866070579</v>
+        <v>0.9926286056371235</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="J22">
-        <v>0.9896567486392268</v>
+        <v>0.9940334682863055</v>
       </c>
       <c r="K22">
-        <v>0.9953599314540869</v>
+        <v>1.000732507705151</v>
       </c>
       <c r="L22">
-        <v>0.9869241211894298</v>
+        <v>0.990890731427844</v>
       </c>
       <c r="M22">
-        <v>1.006380071900643</v>
+        <v>1.008347519443759</v>
       </c>
       <c r="N22">
-        <v>0.9995731954817213</v>
+        <v>1.00583623491158</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.013621270392276</v>
+        <v>1.015178432393811</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.007858887563964</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.011673744914051</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.012380573760121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.95873248685307</v>
+        <v>0.9631310633013294</v>
       </c>
       <c r="D23">
-        <v>0.9806860164768868</v>
+        <v>0.9859510136800097</v>
       </c>
       <c r="E23">
-        <v>0.9721816816602894</v>
+        <v>0.9760509002929111</v>
       </c>
       <c r="F23">
-        <v>0.9919887829841089</v>
+        <v>0.9939060875980139</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="J23">
-        <v>0.9906892442360584</v>
+        <v>0.9948768425453199</v>
       </c>
       <c r="K23">
-        <v>0.9963281083612677</v>
+        <v>1.001486617775291</v>
       </c>
       <c r="L23">
-        <v>0.9879989989494928</v>
+        <v>0.9917879955157028</v>
       </c>
       <c r="M23">
-        <v>1.007404097087658</v>
+        <v>1.009283604753819</v>
       </c>
       <c r="N23">
-        <v>0.9999534706321545</v>
+        <v>1.005900048398962</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.014431748935974</v>
+        <v>1.015919308014886</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.008533491657999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.012196055425143</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.012558190192676</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9658117407381459</v>
+        <v>0.9694939025823109</v>
       </c>
       <c r="D24">
-        <v>0.9858152209375911</v>
+        <v>0.9902880669732034</v>
       </c>
       <c r="E24">
-        <v>0.9777379589110211</v>
+        <v>0.9809718653203104</v>
       </c>
       <c r="F24">
-        <v>0.9972906229636873</v>
+        <v>0.998892390845216</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="J24">
-        <v>0.9946924641677415</v>
+        <v>0.9982190281455543</v>
       </c>
       <c r="K24">
-        <v>1.000096102083898</v>
+        <v>1.004487908995958</v>
       </c>
       <c r="L24">
-        <v>0.9921676349094882</v>
+        <v>0.9953415847171493</v>
       </c>
       <c r="M24">
-        <v>1.011365485949249</v>
+        <v>1.012938985301292</v>
       </c>
       <c r="N24">
-        <v>1.001428934384279</v>
+        <v>1.006357594575466</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.0175670341476</v>
+        <v>1.018812393556912</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.011190058076927</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.014309713123558</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.01327407251086</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9737127111603919</v>
+        <v>0.9768053175532797</v>
       </c>
       <c r="D25">
-        <v>0.991578159718875</v>
+        <v>0.9953348203318849</v>
       </c>
       <c r="E25">
-        <v>0.9839737772988856</v>
+        <v>0.9866920696872599</v>
       </c>
       <c r="F25">
-        <v>1.003251627142461</v>
+        <v>1.00459380016526</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="J25">
-        <v>0.9991583300367871</v>
+        <v>1.00213930788793</v>
       </c>
       <c r="K25">
-        <v>1.004308636104978</v>
+        <v>1.008005991487287</v>
       </c>
       <c r="L25">
-        <v>0.9968260810154819</v>
+        <v>0.9995005478996886</v>
       </c>
       <c r="M25">
-        <v>1.015799674631198</v>
+        <v>1.017121219423895</v>
       </c>
       <c r="N25">
-        <v>1.00307082798304</v>
+        <v>1.00744872231246</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.021076504428747</v>
+        <v>1.02212244692581</v>
       </c>
       <c r="Q25">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.0141657664667</v>
+        <v>1.016794036706784</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.014121318350635</v>
       </c>
     </row>
   </sheetData>
